--- a/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
+++ b/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg6#焦化\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47C3A2-FF53-4FE7-9C7B-282D06E7F1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5干熄焦生产" sheetId="1" r:id="rId1"/>
     <sheet name="_ganxijiao_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CISDI</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -429,12 +442,16 @@
     <t>ZP_CK9_10_L1R_CDQ_EI01TC124_202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,7 +820,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接连接符 2"/>
+        <xdr:cNvPr id="3" name="直接连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -852,7 +875,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直接连接符 5"/>
+        <xdr:cNvPr id="6" name="直接连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -896,7 +925,13 @@
     <xdr:ext cx="466794" cy="283411"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -948,7 +983,13 @@
     <xdr:ext cx="466794" cy="283411"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1000,7 +1041,13 @@
     <xdr:ext cx="466794" cy="283411"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1300,30 +1347,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.625" style="1"/>
+    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="24.6" customHeight="1">
+    <row r="2" spans="2:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
@@ -1354,7 +1401,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
     </row>
-    <row r="3" spans="2:28">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -1374,7 +1421,7 @@
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
     </row>
-    <row r="4" spans="2:28" ht="13.5" customHeight="1" thickBot="1">
+    <row r="4" spans="2:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1394,7 +1441,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1">
+    <row r="5" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="16" t="s">
@@ -1429,7 +1476,7 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="17"/>
     </row>
-    <row r="6" spans="2:28" ht="36" customHeight="1">
+    <row r="6" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6" t="s">
@@ -1508,7 +1555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="33.950000000000003" customHeight="1">
+    <row r="7" spans="2:28" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
@@ -1587,7 +1634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="4">
         <v>8</v>
@@ -1681,7 +1728,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="4">
         <v>10</v>
@@ -1775,7 +1822,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="4">
         <v>12</v>
@@ -1869,7 +1916,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="4">
         <v>14</v>
@@ -1963,7 +2010,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="4">
         <v>16</v>
@@ -2057,7 +2104,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="4">
         <v>18</v>
@@ -2151,7 +2198,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="4">
         <v>20</v>
@@ -2245,7 +2292,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="4">
         <v>22</v>
@@ -2339,7 +2386,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="16" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="4">
         <v>24</v>
@@ -2433,7 +2480,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="17" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="4">
         <v>2</v>
@@ -2527,7 +2574,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="18" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="4">
         <v>4</v>
@@ -2621,7 +2668,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="18.600000000000001" customHeight="1">
+    <row r="19" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="4">
         <v>6</v>
@@ -2715,7 +2762,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="2:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
         <v>0</v>
@@ -2821,7 +2868,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="15.75" thickTop="1"/>
+    <row r="21" spans="2:28" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="K5:T5"/>
@@ -2840,14 +2887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="15" customFormat="1" ht="54.95" customHeight="1">
+    <row r="1" spans="1:25" s="15" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -2925,17 +2972,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BAD20D-7FDE-4601-ABAB-7F50C6B5A4F3}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
+++ b/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg6#焦化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47C3A2-FF53-4FE7-9C7B-282D06E7F1B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D44EA-D4AD-497E-A22D-1306589816BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3000,7 +3000,7 @@
         <v>60</v>
       </c>
       <c r="B1">
-        <v>56</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
+++ b/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg6#焦化\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964D44EA-D4AD-497E-A22D-1306589816BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B3D7D-421E-4DCF-8C9B-573A6B37C77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5干熄焦生产" sheetId="1" r:id="rId1"/>
@@ -303,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5#干熄焦生产报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>循环风量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +440,10 @@
   </si>
   <si>
     <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6#干熄焦生产报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1372,7 @@
   <sheetData>
     <row r="2" spans="2:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1445,7 +1445,7 @@
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
@@ -1454,7 +1454,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
@@ -1480,31 +1480,31 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="L6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>20</v>
@@ -1562,7 +1562,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1580,7 +1580,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>19</v>
@@ -2890,77 +2890,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" s="15" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2991,13 +2993,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BAD20D-7FDE-4601-ABAB-7F50C6B5A4F3}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>910</v>

--- a/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
+++ b/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\developSoftWare\houduancode\wg-steel\excel\finished\wg6#焦化\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\焦化910\干熄焦\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B3D7D-421E-4DCF-8C9B-573A6B37C77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3D18FE-9ABF-4BE1-9676-665562B491FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="5干熄焦生产" sheetId="1" r:id="rId1"/>
+    <sheet name="6干熄焦生产" sheetId="1" r:id="rId1"/>
     <sheet name="_ganxijiao_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
@@ -39,7 +39,7 @@
     <author>CISDI</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B229D4AA-A78D-41FE-91BF-C3989FCDE2A6}">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{92F77280-39AD-4988-A1B6-B83DC02311EC}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{4F3F9FB5-B2A3-407B-8C13-6D85F43DD7BA}">
       <text>
         <r>
           <rPr>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -444,6 +444,22 @@
   </si>
   <si>
     <t>6#干熄焦生产报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_6CycleFlow_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CDQ_C_1_FT123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CDQ_C_1PT_25106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CDQ_C_1TE_25201A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1357,20 +1373,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
         <v>60</v>
       </c>
@@ -1401,7 +1417,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -1421,7 +1437,7 @@
       <c r="AA3" s="9"/>
       <c r="AB3" s="9"/>
     </row>
-    <row r="4" spans="2:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1441,7 +1457,7 @@
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
     </row>
-    <row r="5" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="21"/>
       <c r="D5" s="16" t="s">
@@ -1476,7 +1492,7 @@
       <c r="AA5" s="16"/>
       <c r="AB5" s="17"/>
     </row>
-    <row r="6" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="6" t="s">
@@ -1555,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:28" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="22"/>
       <c r="C7" s="23"/>
       <c r="D7" s="2" t="s">
@@ -1634,7 +1650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
       <c r="C8" s="4">
         <v>8</v>
@@ -1643,8 +1659,14 @@
         <f>IF(_ganxijiao_day_all!A2="","",_ganxijiao_day_all!A2)</f>
         <v/>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="E8" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B2="","",_ganxijiao_day_all!B2)</f>
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C2="","",_ganxijiao_day_all!C2)</f>
+        <v/>
+      </c>
       <c r="G8" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D2="","",_ganxijiao_day_all!D2)</f>
         <v/>
@@ -1693,7 +1715,10 @@
         <f>IF(_ganxijiao_day_all!O2="","",_ganxijiao_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S8" s="4"/>
+      <c r="S8" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P2="","",_ganxijiao_day_all!P2)</f>
+        <v/>
+      </c>
       <c r="T8" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q2="","",_ganxijiao_day_all!Q2)</f>
         <v/>
@@ -1702,7 +1727,10 @@
         <f>IF(_ganxijiao_day_all!R2="","",_ganxijiao_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S2="","",_ganxijiao_day_all!S2)</f>
+        <v/>
+      </c>
       <c r="W8" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T2="","",_ganxijiao_day_all!T2)</f>
         <v/>
@@ -1728,7 +1756,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="4">
         <v>10</v>
@@ -1737,8 +1765,14 @@
         <f>IF(_ganxijiao_day_all!A3="","",_ganxijiao_day_all!A3)</f>
         <v/>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B3="","",_ganxijiao_day_all!B3)</f>
+        <v/>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C3="","",_ganxijiao_day_all!C3)</f>
+        <v/>
+      </c>
       <c r="G9" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D3="","",_ganxijiao_day_all!D3)</f>
         <v/>
@@ -1787,7 +1821,10 @@
         <f>IF(_ganxijiao_day_all!O3="","",_ganxijiao_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S9" s="4"/>
+      <c r="S9" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P3="","",_ganxijiao_day_all!P3)</f>
+        <v/>
+      </c>
       <c r="T9" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q3="","",_ganxijiao_day_all!Q3)</f>
         <v/>
@@ -1796,7 +1833,10 @@
         <f>IF(_ganxijiao_day_all!R3="","",_ganxijiao_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V9" s="4"/>
+      <c r="V9" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S3="","",_ganxijiao_day_all!S3)</f>
+        <v/>
+      </c>
       <c r="W9" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T3="","",_ganxijiao_day_all!T3)</f>
         <v/>
@@ -1822,7 +1862,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
       <c r="C10" s="4">
         <v>12</v>
@@ -1831,8 +1871,14 @@
         <f>IF(_ganxijiao_day_all!A4="","",_ganxijiao_day_all!A4)</f>
         <v/>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B4="","",_ganxijiao_day_all!B4)</f>
+        <v/>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C4="","",_ganxijiao_day_all!C4)</f>
+        <v/>
+      </c>
       <c r="G10" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D4="","",_ganxijiao_day_all!D4)</f>
         <v/>
@@ -1881,7 +1927,10 @@
         <f>IF(_ganxijiao_day_all!O4="","",_ganxijiao_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S10" s="4"/>
+      <c r="S10" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P4="","",_ganxijiao_day_all!P4)</f>
+        <v/>
+      </c>
       <c r="T10" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q4="","",_ganxijiao_day_all!Q4)</f>
         <v/>
@@ -1890,7 +1939,10 @@
         <f>IF(_ganxijiao_day_all!R4="","",_ganxijiao_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V10" s="4"/>
+      <c r="V10" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S4="","",_ganxijiao_day_all!S4)</f>
+        <v/>
+      </c>
       <c r="W10" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T4="","",_ganxijiao_day_all!T4)</f>
         <v/>
@@ -1916,7 +1968,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
       <c r="C11" s="4">
         <v>14</v>
@@ -1925,8 +1977,14 @@
         <f>IF(_ganxijiao_day_all!A5="","",_ganxijiao_day_all!A5)</f>
         <v/>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B5="","",_ganxijiao_day_all!B5)</f>
+        <v/>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C5="","",_ganxijiao_day_all!C5)</f>
+        <v/>
+      </c>
       <c r="G11" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D5="","",_ganxijiao_day_all!D5)</f>
         <v/>
@@ -1975,7 +2033,10 @@
         <f>IF(_ganxijiao_day_all!O5="","",_ganxijiao_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S11" s="4"/>
+      <c r="S11" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P5="","",_ganxijiao_day_all!P5)</f>
+        <v/>
+      </c>
       <c r="T11" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q5="","",_ganxijiao_day_all!Q5)</f>
         <v/>
@@ -1984,7 +2045,10 @@
         <f>IF(_ganxijiao_day_all!R5="","",_ganxijiao_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S5="","",_ganxijiao_day_all!S5)</f>
+        <v/>
+      </c>
       <c r="W11" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T5="","",_ganxijiao_day_all!T5)</f>
         <v/>
@@ -2010,7 +2074,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="4">
         <v>16</v>
@@ -2019,8 +2083,14 @@
         <f>IF(_ganxijiao_day_all!A6="","",_ganxijiao_day_all!A6)</f>
         <v/>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B6="","",_ganxijiao_day_all!B6)</f>
+        <v/>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C6="","",_ganxijiao_day_all!C6)</f>
+        <v/>
+      </c>
       <c r="G12" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D6="","",_ganxijiao_day_all!D6)</f>
         <v/>
@@ -2069,7 +2139,10 @@
         <f>IF(_ganxijiao_day_all!O6="","",_ganxijiao_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S12" s="4"/>
+      <c r="S12" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P6="","",_ganxijiao_day_all!P6)</f>
+        <v/>
+      </c>
       <c r="T12" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q6="","",_ganxijiao_day_all!Q6)</f>
         <v/>
@@ -2078,7 +2151,10 @@
         <f>IF(_ganxijiao_day_all!R6="","",_ganxijiao_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S6="","",_ganxijiao_day_all!S6)</f>
+        <v/>
+      </c>
       <c r="W12" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T6="","",_ganxijiao_day_all!T6)</f>
         <v/>
@@ -2104,7 +2180,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
       <c r="C13" s="4">
         <v>18</v>
@@ -2113,8 +2189,14 @@
         <f>IF(_ganxijiao_day_all!A7="","",_ganxijiao_day_all!A7)</f>
         <v/>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B7="","",_ganxijiao_day_all!B7)</f>
+        <v/>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C7="","",_ganxijiao_day_all!C7)</f>
+        <v/>
+      </c>
       <c r="G13" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D7="","",_ganxijiao_day_all!D7)</f>
         <v/>
@@ -2163,7 +2245,10 @@
         <f>IF(_ganxijiao_day_all!O7="","",_ganxijiao_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S13" s="4"/>
+      <c r="S13" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P7="","",_ganxijiao_day_all!P7)</f>
+        <v/>
+      </c>
       <c r="T13" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q7="","",_ganxijiao_day_all!Q7)</f>
         <v/>
@@ -2172,7 +2257,10 @@
         <f>IF(_ganxijiao_day_all!R7="","",_ganxijiao_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V13" s="4"/>
+      <c r="V13" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S7="","",_ganxijiao_day_all!S7)</f>
+        <v/>
+      </c>
       <c r="W13" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T7="","",_ganxijiao_day_all!T7)</f>
         <v/>
@@ -2198,7 +2286,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="4">
         <v>20</v>
@@ -2207,8 +2295,14 @@
         <f>IF(_ganxijiao_day_all!A8="","",_ganxijiao_day_all!A8)</f>
         <v/>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E14" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B8="","",_ganxijiao_day_all!B8)</f>
+        <v/>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C8="","",_ganxijiao_day_all!C8)</f>
+        <v/>
+      </c>
       <c r="G14" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D8="","",_ganxijiao_day_all!D8)</f>
         <v/>
@@ -2257,7 +2351,10 @@
         <f>IF(_ganxijiao_day_all!O8="","",_ganxijiao_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S14" s="4"/>
+      <c r="S14" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P8="","",_ganxijiao_day_all!P8)</f>
+        <v/>
+      </c>
       <c r="T14" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q8="","",_ganxijiao_day_all!Q8)</f>
         <v/>
@@ -2266,7 +2363,10 @@
         <f>IF(_ganxijiao_day_all!R8="","",_ganxijiao_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V14" s="4"/>
+      <c r="V14" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S8="","",_ganxijiao_day_all!S8)</f>
+        <v/>
+      </c>
       <c r="W14" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T8="","",_ganxijiao_day_all!T8)</f>
         <v/>
@@ -2292,7 +2392,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="4">
         <v>22</v>
@@ -2301,8 +2401,14 @@
         <f>IF(_ganxijiao_day_all!A9="","",_ganxijiao_day_all!A9)</f>
         <v/>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B9="","",_ganxijiao_day_all!B9)</f>
+        <v/>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C9="","",_ganxijiao_day_all!C9)</f>
+        <v/>
+      </c>
       <c r="G15" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D9="","",_ganxijiao_day_all!D9)</f>
         <v/>
@@ -2351,7 +2457,10 @@
         <f>IF(_ganxijiao_day_all!O9="","",_ganxijiao_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S15" s="4"/>
+      <c r="S15" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P9="","",_ganxijiao_day_all!P9)</f>
+        <v/>
+      </c>
       <c r="T15" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q9="","",_ganxijiao_day_all!Q9)</f>
         <v/>
@@ -2360,7 +2469,10 @@
         <f>IF(_ganxijiao_day_all!R9="","",_ganxijiao_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V15" s="4"/>
+      <c r="V15" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S9="","",_ganxijiao_day_all!S9)</f>
+        <v/>
+      </c>
       <c r="W15" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T9="","",_ganxijiao_day_all!T9)</f>
         <v/>
@@ -2386,7 +2498,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="4">
         <v>24</v>
@@ -2395,8 +2507,14 @@
         <f>IF(_ganxijiao_day_all!A10="","",_ganxijiao_day_all!A10)</f>
         <v/>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B10="","",_ganxijiao_day_all!B10)</f>
+        <v/>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C10="","",_ganxijiao_day_all!C10)</f>
+        <v/>
+      </c>
       <c r="G16" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D10="","",_ganxijiao_day_all!D10)</f>
         <v/>
@@ -2445,7 +2563,10 @@
         <f>IF(_ganxijiao_day_all!O10="","",_ganxijiao_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S16" s="4"/>
+      <c r="S16" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P10="","",_ganxijiao_day_all!P10)</f>
+        <v/>
+      </c>
       <c r="T16" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q10="","",_ganxijiao_day_all!Q10)</f>
         <v/>
@@ -2454,7 +2575,10 @@
         <f>IF(_ganxijiao_day_all!R10="","",_ganxijiao_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V16" s="4"/>
+      <c r="V16" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S10="","",_ganxijiao_day_all!S10)</f>
+        <v/>
+      </c>
       <c r="W16" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T10="","",_ganxijiao_day_all!T10)</f>
         <v/>
@@ -2480,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="4">
         <v>2</v>
@@ -2489,8 +2613,14 @@
         <f>IF(_ganxijiao_day_all!A11="","",_ganxijiao_day_all!A11)</f>
         <v/>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B11="","",_ganxijiao_day_all!B11)</f>
+        <v/>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C11="","",_ganxijiao_day_all!C11)</f>
+        <v/>
+      </c>
       <c r="G17" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D11="","",_ganxijiao_day_all!D11)</f>
         <v/>
@@ -2539,7 +2669,10 @@
         <f>IF(_ganxijiao_day_all!O11="","",_ganxijiao_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S17" s="4"/>
+      <c r="S17" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P11="","",_ganxijiao_day_all!P11)</f>
+        <v/>
+      </c>
       <c r="T17" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q11="","",_ganxijiao_day_all!Q11)</f>
         <v/>
@@ -2548,7 +2681,10 @@
         <f>IF(_ganxijiao_day_all!R11="","",_ganxijiao_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V17" s="4"/>
+      <c r="V17" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S11="","",_ganxijiao_day_all!S11)</f>
+        <v/>
+      </c>
       <c r="W17" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T11="","",_ganxijiao_day_all!T11)</f>
         <v/>
@@ -2574,7 +2710,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="18"/>
       <c r="C18" s="4">
         <v>4</v>
@@ -2583,8 +2719,14 @@
         <f>IF(_ganxijiao_day_all!A12="","",_ganxijiao_day_all!A12)</f>
         <v/>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B12="","",_ganxijiao_day_all!B12)</f>
+        <v/>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C12="","",_ganxijiao_day_all!C12)</f>
+        <v/>
+      </c>
       <c r="G18" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D12="","",_ganxijiao_day_all!D12)</f>
         <v/>
@@ -2633,7 +2775,10 @@
         <f>IF(_ganxijiao_day_all!O12="","",_ganxijiao_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S18" s="4"/>
+      <c r="S18" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P12="","",_ganxijiao_day_all!P12)</f>
+        <v/>
+      </c>
       <c r="T18" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q12="","",_ganxijiao_day_all!Q12)</f>
         <v/>
@@ -2642,7 +2787,10 @@
         <f>IF(_ganxijiao_day_all!R12="","",_ganxijiao_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V18" s="4"/>
+      <c r="V18" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S12="","",_ganxijiao_day_all!S12)</f>
+        <v/>
+      </c>
       <c r="W18" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T12="","",_ganxijiao_day_all!T12)</f>
         <v/>
@@ -2668,7 +2816,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="4">
         <v>6</v>
@@ -2677,8 +2825,14 @@
         <f>IF(_ganxijiao_day_all!A13="","",_ganxijiao_day_all!A13)</f>
         <v/>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!B13="","",_ganxijiao_day_all!B13)</f>
+        <v/>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!C13="","",_ganxijiao_day_all!C13)</f>
+        <v/>
+      </c>
       <c r="G19" s="4" t="str">
         <f>IF(_ganxijiao_day_all!D13="","",_ganxijiao_day_all!D13)</f>
         <v/>
@@ -2727,7 +2881,10 @@
         <f>IF(_ganxijiao_day_all!O13="","",_ganxijiao_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S19" s="4"/>
+      <c r="S19" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!P13="","",_ganxijiao_day_all!P13)</f>
+        <v/>
+      </c>
       <c r="T19" s="4" t="str">
         <f>IF(_ganxijiao_day_all!Q13="","",_ganxijiao_day_all!Q13)</f>
         <v/>
@@ -2736,7 +2893,10 @@
         <f>IF(_ganxijiao_day_all!R13="","",_ganxijiao_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V19" s="4"/>
+      <c r="V19" s="4" t="str">
+        <f>IF(_ganxijiao_day_all!S13="","",_ganxijiao_day_all!S13)</f>
+        <v/>
+      </c>
       <c r="W19" s="4" t="str">
         <f>IF(_ganxijiao_day_all!T13="","",_ganxijiao_day_all!T13)</f>
         <v/>
@@ -2762,7 +2922,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:28" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="13" t="s">
         <v>0</v>
@@ -2868,7 +3028,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="K5:T5"/>
@@ -2890,18 +3050,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" s="15" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="15" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
@@ -2938,14 +3102,18 @@
       <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="Q1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="S1" s="6"/>
+      <c r="S1" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="T1" s="6" t="s">
         <v>53</v>
       </c>
@@ -2981,7 +3149,7 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2995,9 +3163,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>59</v>
       </c>

--- a/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
+++ b/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\焦化910\干熄焦\cn_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8670F3F2-3D1E-4A1A-9321-96C8143B85E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABF3D69-278C-40A6-940E-793904A98FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>CISDI:</t>
         </r>
@@ -51,9 +52,9 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+CISDI:
 朱川:
 判断排焦皮带</t>
         </r>
@@ -66,7 +67,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>CISDI:</t>
         </r>
@@ -74,9 +74,9 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+CISDI:
 朱川:
 两个点的值相加</t>
         </r>
@@ -89,7 +89,6 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t>CISDI:</t>
         </r>
@@ -97,9 +96,9 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+CISDI:
 朱川:
 判断排焦皮带</t>
         </r>
@@ -110,9 +109,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>6#干熄焦生产报表</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>流量</t>
+  </si>
+  <si>
+    <t>压力</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>排焦量</t>
+  </si>
+  <si>
+    <t>循环风量</t>
+  </si>
+  <si>
+    <t>低压蒸汽量</t>
+  </si>
+  <si>
+    <t>锅炉给水量</t>
+  </si>
+  <si>
+    <t>汽包液位（左）</t>
+  </si>
+  <si>
+    <t>汽包液位（右）</t>
+  </si>
+  <si>
+    <t>主蒸汽流量</t>
+  </si>
+  <si>
+    <t>预存室压力</t>
+  </si>
+  <si>
+    <t>主蒸汽压力</t>
+  </si>
+  <si>
+    <t>主蒸汽压力(阀后)</t>
+  </si>
+  <si>
+    <t>汽包压力</t>
+  </si>
+  <si>
+    <t>锅炉出口压力</t>
+  </si>
+  <si>
+    <t>低压蒸汽压力</t>
+  </si>
+  <si>
+    <t>锅炉入口压力</t>
+  </si>
+  <si>
+    <t>风机出口压力</t>
+  </si>
+  <si>
+    <t>风机入口压力</t>
+  </si>
+  <si>
+    <t>干熄炉入口压力</t>
+  </si>
+  <si>
+    <t>炉顶温度</t>
+  </si>
+  <si>
+    <t>主蒸汽温度</t>
+  </si>
+  <si>
+    <t>排焦温度</t>
+  </si>
+  <si>
+    <t>冷却室上部温度</t>
+  </si>
+  <si>
+    <t>冷却室下部温度</t>
+  </si>
+  <si>
+    <t>锅炉入口温度</t>
+  </si>
+  <si>
+    <t>锅炉出口温度</t>
+  </si>
+  <si>
+    <t>干熄炉入口温度</t>
+  </si>
+  <si>
+    <t>t/h</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Pa</t>
+  </si>
+  <si>
+    <t>MPa</t>
+  </si>
+  <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平均</t>
+    </r>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI117_204</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CC_6CycleFlow_05</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CDQ_C_1_FT123</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CC_MR_2TAG0039</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI112_202</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI112_203</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CC_EI01AI112_204</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI113_203</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CC_EI01AI112_205</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CC_EI01AI113_200</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI112_201</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI113_205</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CC_EI01AI113_205</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI113_204</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI114_203</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CDQ_C_1PT_25106</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01AI114_204</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01TC121_205</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L2C_CDQ_C_1TE_25201A</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_C_23TT_225112</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_MR_2TAG0131</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_MR_2TAG0132</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01TC123_204</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01TC123_205</t>
+  </si>
+  <si>
+    <t>ZP_CK9_10_L1R_CDQ_EI01TC124_202</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <r>
+      <t>Nm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>/h</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>kPa</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -121,7 +408,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>编号：</t>
@@ -132,258 +418,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
       </rPr>
       <t>JL/LHJH-SCB-135</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-  </si>
-  <si>
-    <t>流量</t>
-  </si>
-  <si>
-    <t>压力</t>
-  </si>
-  <si>
-    <t>温度</t>
-  </si>
-  <si>
-    <t>排焦量</t>
-  </si>
-  <si>
-    <t>循环风量</t>
-  </si>
-  <si>
-    <t>低压蒸汽量</t>
-  </si>
-  <si>
-    <t>锅炉给水量</t>
-  </si>
-  <si>
-    <t>汽包液位（左）</t>
-  </si>
-  <si>
-    <t>汽包液位（右）</t>
-  </si>
-  <si>
-    <t>主蒸汽流量</t>
-  </si>
-  <si>
-    <t>预存室压力</t>
-  </si>
-  <si>
-    <t>主蒸汽压力</t>
-  </si>
-  <si>
-    <t>主蒸汽压力(阀后)</t>
-  </si>
-  <si>
-    <t>汽包压力</t>
-  </si>
-  <si>
-    <t>锅炉出口压力</t>
-  </si>
-  <si>
-    <t>低压蒸汽压力</t>
-  </si>
-  <si>
-    <t>锅炉入口压力</t>
-  </si>
-  <si>
-    <t>风机出口压力</t>
-  </si>
-  <si>
-    <t>风机入口压力</t>
-  </si>
-  <si>
-    <t>干熄炉入口压力</t>
-  </si>
-  <si>
-    <t>炉顶温度</t>
-  </si>
-  <si>
-    <t>主蒸汽温度</t>
-  </si>
-  <si>
-    <t>排焦温度</t>
-  </si>
-  <si>
-    <t>冷却室上部温度</t>
-  </si>
-  <si>
-    <t>冷却室下部温度</t>
-  </si>
-  <si>
-    <t>锅炉入口温度</t>
-  </si>
-  <si>
-    <t>锅炉出口温度</t>
-  </si>
-  <si>
-    <t>干熄炉入口温度</t>
-  </si>
-  <si>
-    <t>t/h</t>
-  </si>
-  <si>
-    <t>Nm3/h</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Pa</t>
-  </si>
-  <si>
-    <t>MPa</t>
-  </si>
-  <si>
-    <t>Kpa</t>
-  </si>
-  <si>
-    <t>℃</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平均</t>
-    </r>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI117_204</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CC_6CycleFlow_05</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CDQ_C_1_FT123</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CC_MR_2TAG0039</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI112_202</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI112_203</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CC_EI01AI112_204</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI113_203</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CC_EI01AI112_205</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CC_EI01AI113_200</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI112_201</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI113_205</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CC_EI01AI113_205</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI113_204</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI114_203</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CDQ_C_1PT_25106</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01AI114_204</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01TC121_205</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L2C_CDQ_C_1TE_25201A</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_C_23TT_225112</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_MR_2TAG0131</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_MR_2TAG0132</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01TC123_204</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01TC123_205</t>
-  </si>
-  <si>
-    <t>ZP_CK9_10_L1R_CDQ_EI01TC124_202</t>
-  </si>
-  <si>
-    <t>version</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,9 +429,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,14 +442,85 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -420,60 +529,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -496,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -655,26 +710,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -703,6 +743,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,10 +758,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,10 +803,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -901,9 +962,7 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
@@ -965,9 +1024,7 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
@@ -1029,9 +1086,7 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks/>
-        </xdr:cNvSpPr>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
@@ -1291,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:AB20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1302,50 +1357,49 @@
     <col min="3" max="3" width="4.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.09765625" style="1" customWidth="1"/>
     <col min="5" max="7" width="8.59765625" style="1"/>
-    <col min="8" max="8" width="9.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.69921875" style="1" customWidth="1"/>
     <col min="10" max="12" width="8.59765625" style="1"/>
-    <col min="13" max="13" width="9.296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" style="1" customWidth="1"/>
     <col min="14" max="19" width="8.59765625" style="1"/>
     <col min="20" max="20" width="10.69921875" style="1" customWidth="1"/>
     <col min="21" max="23" width="8.59765625" style="1"/>
-    <col min="24" max="24" width="10.296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.19921875" style="1" customWidth="1"/>
     <col min="25" max="25" width="10.09765625" style="1" customWidth="1"/>
     <col min="26" max="27" width="8.59765625" style="1"/>
-    <col min="28" max="28" width="10.296875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.19921875" style="1" customWidth="1"/>
     <col min="29" max="16384" width="8.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
       <c r="M3" s="2"/>
@@ -1360,14 +1414,14 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="Y3" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="2:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1381,1585 +1435,1587 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="31"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="22" t="s">
+    <row r="5" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="23"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="29"/>
     </row>
     <row r="6" spans="2:28" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AB6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="N7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="U7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="V7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AA7" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="15">
+      <c r="B8" s="22"/>
+      <c r="C8" s="10">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A2="","",_ganxijiao_day_all!A2)</f>
         <v/>
       </c>
-      <c r="E8" s="10" t="str">
+      <c r="E8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B2="","",_ganxijiao_day_all!B2)</f>
         <v/>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C2="","",_ganxijiao_day_all!C2)</f>
         <v/>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D2="","",_ganxijiao_day_all!D2)</f>
         <v/>
       </c>
-      <c r="H8" s="10" t="str">
+      <c r="H8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E2="","",_ganxijiao_day_all!E2)</f>
         <v/>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F2="","",_ganxijiao_day_all!F2)</f>
         <v/>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G2="","",_ganxijiao_day_all!G2)</f>
         <v/>
       </c>
-      <c r="K8" s="10" t="str">
+      <c r="K8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H2="","",_ganxijiao_day_all!H2)</f>
         <v/>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I2="","",_ganxijiao_day_all!I2)</f>
         <v/>
       </c>
-      <c r="M8" s="10" t="str">
+      <c r="M8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J2="","",_ganxijiao_day_all!J2)</f>
         <v/>
       </c>
-      <c r="N8" s="10" t="str">
+      <c r="N8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K2="","",_ganxijiao_day_all!K2)</f>
         <v/>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="O8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L2="","",_ganxijiao_day_all!L2)</f>
         <v/>
       </c>
-      <c r="P8" s="10" t="str">
+      <c r="P8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M2="","",_ganxijiao_day_all!M2)</f>
         <v/>
       </c>
-      <c r="Q8" s="10" t="str">
+      <c r="Q8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N2="","",_ganxijiao_day_all!N2)</f>
         <v/>
       </c>
-      <c r="R8" s="10" t="str">
+      <c r="R8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O2="","",_ganxijiao_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S8" s="10" t="str">
+      <c r="S8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P2="","",_ganxijiao_day_all!P2)</f>
         <v/>
       </c>
-      <c r="T8" s="10" t="str">
+      <c r="T8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q2="","",_ganxijiao_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="U8" s="10" t="str">
+      <c r="U8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R2="","",_ganxijiao_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V8" s="10" t="str">
+      <c r="V8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S2="","",_ganxijiao_day_all!S2)</f>
         <v/>
       </c>
-      <c r="W8" s="10" t="str">
+      <c r="W8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T2="","",_ganxijiao_day_all!T2)</f>
         <v/>
       </c>
-      <c r="X8" s="10" t="str">
+      <c r="X8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U2="","",_ganxijiao_day_all!U2)</f>
         <v/>
       </c>
-      <c r="Y8" s="10" t="str">
+      <c r="Y8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V2="","",_ganxijiao_day_all!V2)</f>
         <v/>
       </c>
-      <c r="Z8" s="10" t="str">
+      <c r="Z8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W2="","",_ganxijiao_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AA8" s="10" t="str">
+      <c r="AA8" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X2="","",_ganxijiao_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AB8" s="11" t="str">
+      <c r="AB8" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y2="","",_ganxijiao_day_all!Y2)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15">
+      <c r="B9" s="22"/>
+      <c r="C9" s="10">
         <v>22</v>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A3="","",_ganxijiao_day_all!A3)</f>
         <v/>
       </c>
-      <c r="E9" s="10" t="str">
+      <c r="E9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B3="","",_ganxijiao_day_all!B3)</f>
         <v/>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C3="","",_ganxijiao_day_all!C3)</f>
         <v/>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D3="","",_ganxijiao_day_all!D3)</f>
         <v/>
       </c>
-      <c r="H9" s="10" t="str">
+      <c r="H9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E3="","",_ganxijiao_day_all!E3)</f>
         <v/>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F3="","",_ganxijiao_day_all!F3)</f>
         <v/>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G3="","",_ganxijiao_day_all!G3)</f>
         <v/>
       </c>
-      <c r="K9" s="10" t="str">
+      <c r="K9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H3="","",_ganxijiao_day_all!H3)</f>
         <v/>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I3="","",_ganxijiao_day_all!I3)</f>
         <v/>
       </c>
-      <c r="M9" s="10" t="str">
+      <c r="M9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J3="","",_ganxijiao_day_all!J3)</f>
         <v/>
       </c>
-      <c r="N9" s="10" t="str">
+      <c r="N9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K3="","",_ganxijiao_day_all!K3)</f>
         <v/>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="O9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L3="","",_ganxijiao_day_all!L3)</f>
         <v/>
       </c>
-      <c r="P9" s="10" t="str">
+      <c r="P9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M3="","",_ganxijiao_day_all!M3)</f>
         <v/>
       </c>
-      <c r="Q9" s="10" t="str">
+      <c r="Q9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N3="","",_ganxijiao_day_all!N3)</f>
         <v/>
       </c>
-      <c r="R9" s="10" t="str">
+      <c r="R9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O3="","",_ganxijiao_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S9" s="10" t="str">
+      <c r="S9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P3="","",_ganxijiao_day_all!P3)</f>
         <v/>
       </c>
-      <c r="T9" s="10" t="str">
+      <c r="T9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q3="","",_ganxijiao_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="U9" s="10" t="str">
+      <c r="U9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R3="","",_ganxijiao_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V9" s="10" t="str">
+      <c r="V9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S3="","",_ganxijiao_day_all!S3)</f>
         <v/>
       </c>
-      <c r="W9" s="10" t="str">
+      <c r="W9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T3="","",_ganxijiao_day_all!T3)</f>
         <v/>
       </c>
-      <c r="X9" s="10" t="str">
+      <c r="X9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U3="","",_ganxijiao_day_all!U3)</f>
         <v/>
       </c>
-      <c r="Y9" s="10" t="str">
+      <c r="Y9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V3="","",_ganxijiao_day_all!V3)</f>
         <v/>
       </c>
-      <c r="Z9" s="10" t="str">
+      <c r="Z9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W3="","",_ganxijiao_day_all!W3)</f>
         <v/>
       </c>
-      <c r="AA9" s="10" t="str">
+      <c r="AA9" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X3="","",_ganxijiao_day_all!X3)</f>
         <v/>
       </c>
-      <c r="AB9" s="11" t="str">
+      <c r="AB9" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y3="","",_ganxijiao_day_all!Y3)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="15">
+      <c r="B10" s="22"/>
+      <c r="C10" s="10">
         <v>24</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A4="","",_ganxijiao_day_all!A4)</f>
         <v/>
       </c>
-      <c r="E10" s="10" t="str">
+      <c r="E10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B4="","",_ganxijiao_day_all!B4)</f>
         <v/>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C4="","",_ganxijiao_day_all!C4)</f>
         <v/>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D4="","",_ganxijiao_day_all!D4)</f>
         <v/>
       </c>
-      <c r="H10" s="10" t="str">
+      <c r="H10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E4="","",_ganxijiao_day_all!E4)</f>
         <v/>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F4="","",_ganxijiao_day_all!F4)</f>
         <v/>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G4="","",_ganxijiao_day_all!G4)</f>
         <v/>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H4="","",_ganxijiao_day_all!H4)</f>
         <v/>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I4="","",_ganxijiao_day_all!I4)</f>
         <v/>
       </c>
-      <c r="M10" s="10" t="str">
+      <c r="M10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J4="","",_ganxijiao_day_all!J4)</f>
         <v/>
       </c>
-      <c r="N10" s="10" t="str">
+      <c r="N10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K4="","",_ganxijiao_day_all!K4)</f>
         <v/>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="O10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L4="","",_ganxijiao_day_all!L4)</f>
         <v/>
       </c>
-      <c r="P10" s="10" t="str">
+      <c r="P10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M4="","",_ganxijiao_day_all!M4)</f>
         <v/>
       </c>
-      <c r="Q10" s="10" t="str">
+      <c r="Q10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N4="","",_ganxijiao_day_all!N4)</f>
         <v/>
       </c>
-      <c r="R10" s="10" t="str">
+      <c r="R10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O4="","",_ganxijiao_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S10" s="10" t="str">
+      <c r="S10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P4="","",_ganxijiao_day_all!P4)</f>
         <v/>
       </c>
-      <c r="T10" s="10" t="str">
+      <c r="T10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q4="","",_ganxijiao_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="U10" s="10" t="str">
+      <c r="U10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R4="","",_ganxijiao_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V10" s="10" t="str">
+      <c r="V10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S4="","",_ganxijiao_day_all!S4)</f>
         <v/>
       </c>
-      <c r="W10" s="10" t="str">
+      <c r="W10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T4="","",_ganxijiao_day_all!T4)</f>
         <v/>
       </c>
-      <c r="X10" s="10" t="str">
+      <c r="X10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U4="","",_ganxijiao_day_all!U4)</f>
         <v/>
       </c>
-      <c r="Y10" s="10" t="str">
+      <c r="Y10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V4="","",_ganxijiao_day_all!V4)</f>
         <v/>
       </c>
-      <c r="Z10" s="10" t="str">
+      <c r="Z10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W4="","",_ganxijiao_day_all!W4)</f>
         <v/>
       </c>
-      <c r="AA10" s="10" t="str">
+      <c r="AA10" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X4="","",_ganxijiao_day_all!X4)</f>
         <v/>
       </c>
-      <c r="AB10" s="11" t="str">
+      <c r="AB10" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y4="","",_ganxijiao_day_all!Y4)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="15">
+      <c r="B11" s="22"/>
+      <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A5="","",_ganxijiao_day_all!A5)</f>
         <v/>
       </c>
-      <c r="E11" s="10" t="str">
+      <c r="E11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B5="","",_ganxijiao_day_all!B5)</f>
         <v/>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C5="","",_ganxijiao_day_all!C5)</f>
         <v/>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D5="","",_ganxijiao_day_all!D5)</f>
         <v/>
       </c>
-      <c r="H11" s="10" t="str">
+      <c r="H11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E5="","",_ganxijiao_day_all!E5)</f>
         <v/>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F5="","",_ganxijiao_day_all!F5)</f>
         <v/>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G5="","",_ganxijiao_day_all!G5)</f>
         <v/>
       </c>
-      <c r="K11" s="10" t="str">
+      <c r="K11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H5="","",_ganxijiao_day_all!H5)</f>
         <v/>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I5="","",_ganxijiao_day_all!I5)</f>
         <v/>
       </c>
-      <c r="M11" s="10" t="str">
+      <c r="M11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J5="","",_ganxijiao_day_all!J5)</f>
         <v/>
       </c>
-      <c r="N11" s="10" t="str">
+      <c r="N11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K5="","",_ganxijiao_day_all!K5)</f>
         <v/>
       </c>
-      <c r="O11" s="10" t="str">
+      <c r="O11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L5="","",_ganxijiao_day_all!L5)</f>
         <v/>
       </c>
-      <c r="P11" s="10" t="str">
+      <c r="P11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M5="","",_ganxijiao_day_all!M5)</f>
         <v/>
       </c>
-      <c r="Q11" s="10" t="str">
+      <c r="Q11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N5="","",_ganxijiao_day_all!N5)</f>
         <v/>
       </c>
-      <c r="R11" s="10" t="str">
+      <c r="R11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O5="","",_ganxijiao_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S11" s="10" t="str">
+      <c r="S11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P5="","",_ganxijiao_day_all!P5)</f>
         <v/>
       </c>
-      <c r="T11" s="10" t="str">
+      <c r="T11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q5="","",_ganxijiao_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="U11" s="10" t="str">
+      <c r="U11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R5="","",_ganxijiao_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V11" s="10" t="str">
+      <c r="V11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S5="","",_ganxijiao_day_all!S5)</f>
         <v/>
       </c>
-      <c r="W11" s="10" t="str">
+      <c r="W11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T5="","",_ganxijiao_day_all!T5)</f>
         <v/>
       </c>
-      <c r="X11" s="10" t="str">
+      <c r="X11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U5="","",_ganxijiao_day_all!U5)</f>
         <v/>
       </c>
-      <c r="Y11" s="10" t="str">
+      <c r="Y11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V5="","",_ganxijiao_day_all!V5)</f>
         <v/>
       </c>
-      <c r="Z11" s="10" t="str">
+      <c r="Z11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W5="","",_ganxijiao_day_all!W5)</f>
         <v/>
       </c>
-      <c r="AA11" s="10" t="str">
+      <c r="AA11" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X5="","",_ganxijiao_day_all!X5)</f>
         <v/>
       </c>
-      <c r="AB11" s="11" t="str">
+      <c r="AB11" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y5="","",_ganxijiao_day_all!Y5)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="15">
+      <c r="B12" s="22"/>
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A6="","",_ganxijiao_day_all!A6)</f>
         <v/>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B6="","",_ganxijiao_day_all!B6)</f>
         <v/>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C6="","",_ganxijiao_day_all!C6)</f>
         <v/>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D6="","",_ganxijiao_day_all!D6)</f>
         <v/>
       </c>
-      <c r="H12" s="10" t="str">
+      <c r="H12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E6="","",_ganxijiao_day_all!E6)</f>
         <v/>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F6="","",_ganxijiao_day_all!F6)</f>
         <v/>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G6="","",_ganxijiao_day_all!G6)</f>
         <v/>
       </c>
-      <c r="K12" s="10" t="str">
+      <c r="K12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H6="","",_ganxijiao_day_all!H6)</f>
         <v/>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I6="","",_ganxijiao_day_all!I6)</f>
         <v/>
       </c>
-      <c r="M12" s="10" t="str">
+      <c r="M12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J6="","",_ganxijiao_day_all!J6)</f>
         <v/>
       </c>
-      <c r="N12" s="10" t="str">
+      <c r="N12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K6="","",_ganxijiao_day_all!K6)</f>
         <v/>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L6="","",_ganxijiao_day_all!L6)</f>
         <v/>
       </c>
-      <c r="P12" s="10" t="str">
+      <c r="P12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M6="","",_ganxijiao_day_all!M6)</f>
         <v/>
       </c>
-      <c r="Q12" s="10" t="str">
+      <c r="Q12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N6="","",_ganxijiao_day_all!N6)</f>
         <v/>
       </c>
-      <c r="R12" s="10" t="str">
+      <c r="R12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O6="","",_ganxijiao_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S12" s="10" t="str">
+      <c r="S12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P6="","",_ganxijiao_day_all!P6)</f>
         <v/>
       </c>
-      <c r="T12" s="10" t="str">
+      <c r="T12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q6="","",_ganxijiao_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="U12" s="10" t="str">
+      <c r="U12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R6="","",_ganxijiao_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V12" s="10" t="str">
+      <c r="V12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S6="","",_ganxijiao_day_all!S6)</f>
         <v/>
       </c>
-      <c r="W12" s="10" t="str">
+      <c r="W12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T6="","",_ganxijiao_day_all!T6)</f>
         <v/>
       </c>
-      <c r="X12" s="10" t="str">
+      <c r="X12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U6="","",_ganxijiao_day_all!U6)</f>
         <v/>
       </c>
-      <c r="Y12" s="10" t="str">
+      <c r="Y12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V6="","",_ganxijiao_day_all!V6)</f>
         <v/>
       </c>
-      <c r="Z12" s="10" t="str">
+      <c r="Z12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W6="","",_ganxijiao_day_all!W6)</f>
         <v/>
       </c>
-      <c r="AA12" s="10" t="str">
+      <c r="AA12" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X6="","",_ganxijiao_day_all!X6)</f>
         <v/>
       </c>
-      <c r="AB12" s="11" t="str">
+      <c r="AB12" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y6="","",_ganxijiao_day_all!Y6)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="15">
+      <c r="B13" s="22"/>
+      <c r="C13" s="10">
         <v>6</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A7="","",_ganxijiao_day_all!A7)</f>
         <v/>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B7="","",_ganxijiao_day_all!B7)</f>
         <v/>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C7="","",_ganxijiao_day_all!C7)</f>
         <v/>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D7="","",_ganxijiao_day_all!D7)</f>
         <v/>
       </c>
-      <c r="H13" s="10" t="str">
+      <c r="H13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E7="","",_ganxijiao_day_all!E7)</f>
         <v/>
       </c>
-      <c r="I13" s="10" t="str">
+      <c r="I13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F7="","",_ganxijiao_day_all!F7)</f>
         <v/>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G7="","",_ganxijiao_day_all!G7)</f>
         <v/>
       </c>
-      <c r="K13" s="10" t="str">
+      <c r="K13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H7="","",_ganxijiao_day_all!H7)</f>
         <v/>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I7="","",_ganxijiao_day_all!I7)</f>
         <v/>
       </c>
-      <c r="M13" s="10" t="str">
+      <c r="M13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J7="","",_ganxijiao_day_all!J7)</f>
         <v/>
       </c>
-      <c r="N13" s="10" t="str">
+      <c r="N13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K7="","",_ganxijiao_day_all!K7)</f>
         <v/>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="O13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L7="","",_ganxijiao_day_all!L7)</f>
         <v/>
       </c>
-      <c r="P13" s="10" t="str">
+      <c r="P13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M7="","",_ganxijiao_day_all!M7)</f>
         <v/>
       </c>
-      <c r="Q13" s="10" t="str">
+      <c r="Q13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N7="","",_ganxijiao_day_all!N7)</f>
         <v/>
       </c>
-      <c r="R13" s="10" t="str">
+      <c r="R13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O7="","",_ganxijiao_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S13" s="10" t="str">
+      <c r="S13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P7="","",_ganxijiao_day_all!P7)</f>
         <v/>
       </c>
-      <c r="T13" s="10" t="str">
+      <c r="T13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q7="","",_ganxijiao_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="U13" s="10" t="str">
+      <c r="U13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R7="","",_ganxijiao_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V13" s="10" t="str">
+      <c r="V13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S7="","",_ganxijiao_day_all!S7)</f>
         <v/>
       </c>
-      <c r="W13" s="10" t="str">
+      <c r="W13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T7="","",_ganxijiao_day_all!T7)</f>
         <v/>
       </c>
-      <c r="X13" s="10" t="str">
+      <c r="X13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U7="","",_ganxijiao_day_all!U7)</f>
         <v/>
       </c>
-      <c r="Y13" s="10" t="str">
+      <c r="Y13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V7="","",_ganxijiao_day_all!V7)</f>
         <v/>
       </c>
-      <c r="Z13" s="10" t="str">
+      <c r="Z13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W7="","",_ganxijiao_day_all!W7)</f>
         <v/>
       </c>
-      <c r="AA13" s="10" t="str">
+      <c r="AA13" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X7="","",_ganxijiao_day_all!X7)</f>
         <v/>
       </c>
-      <c r="AB13" s="11" t="str">
+      <c r="AB13" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y7="","",_ganxijiao_day_all!Y7)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="15">
+      <c r="B14" s="22"/>
+      <c r="C14" s="10">
         <v>8</v>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A8="","",_ganxijiao_day_all!A8)</f>
         <v/>
       </c>
-      <c r="E14" s="10" t="str">
+      <c r="E14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B8="","",_ganxijiao_day_all!B8)</f>
         <v/>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C8="","",_ganxijiao_day_all!C8)</f>
         <v/>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D8="","",_ganxijiao_day_all!D8)</f>
         <v/>
       </c>
-      <c r="H14" s="10" t="str">
+      <c r="H14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E8="","",_ganxijiao_day_all!E8)</f>
         <v/>
       </c>
-      <c r="I14" s="10" t="str">
+      <c r="I14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F8="","",_ganxijiao_day_all!F8)</f>
         <v/>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G8="","",_ganxijiao_day_all!G8)</f>
         <v/>
       </c>
-      <c r="K14" s="10" t="str">
+      <c r="K14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H8="","",_ganxijiao_day_all!H8)</f>
         <v/>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I8="","",_ganxijiao_day_all!I8)</f>
         <v/>
       </c>
-      <c r="M14" s="10" t="str">
+      <c r="M14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J8="","",_ganxijiao_day_all!J8)</f>
         <v/>
       </c>
-      <c r="N14" s="10" t="str">
+      <c r="N14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K8="","",_ganxijiao_day_all!K8)</f>
         <v/>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L8="","",_ganxijiao_day_all!L8)</f>
         <v/>
       </c>
-      <c r="P14" s="10" t="str">
+      <c r="P14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M8="","",_ganxijiao_day_all!M8)</f>
         <v/>
       </c>
-      <c r="Q14" s="10" t="str">
+      <c r="Q14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N8="","",_ganxijiao_day_all!N8)</f>
         <v/>
       </c>
-      <c r="R14" s="10" t="str">
+      <c r="R14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O8="","",_ganxijiao_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S14" s="10" t="str">
+      <c r="S14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P8="","",_ganxijiao_day_all!P8)</f>
         <v/>
       </c>
-      <c r="T14" s="10" t="str">
+      <c r="T14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q8="","",_ganxijiao_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="U14" s="10" t="str">
+      <c r="U14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R8="","",_ganxijiao_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V14" s="10" t="str">
+      <c r="V14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S8="","",_ganxijiao_day_all!S8)</f>
         <v/>
       </c>
-      <c r="W14" s="10" t="str">
+      <c r="W14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T8="","",_ganxijiao_day_all!T8)</f>
         <v/>
       </c>
-      <c r="X14" s="10" t="str">
+      <c r="X14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U8="","",_ganxijiao_day_all!U8)</f>
         <v/>
       </c>
-      <c r="Y14" s="10" t="str">
+      <c r="Y14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V8="","",_ganxijiao_day_all!V8)</f>
         <v/>
       </c>
-      <c r="Z14" s="10" t="str">
+      <c r="Z14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W8="","",_ganxijiao_day_all!W8)</f>
         <v/>
       </c>
-      <c r="AA14" s="10" t="str">
+      <c r="AA14" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X8="","",_ganxijiao_day_all!X8)</f>
         <v/>
       </c>
-      <c r="AB14" s="11" t="str">
+      <c r="AB14" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y8="","",_ganxijiao_day_all!Y8)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="15">
+      <c r="B15" s="22"/>
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A9="","",_ganxijiao_day_all!A9)</f>
         <v/>
       </c>
-      <c r="E15" s="10" t="str">
+      <c r="E15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B9="","",_ganxijiao_day_all!B9)</f>
         <v/>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C9="","",_ganxijiao_day_all!C9)</f>
         <v/>
       </c>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D9="","",_ganxijiao_day_all!D9)</f>
         <v/>
       </c>
-      <c r="H15" s="10" t="str">
+      <c r="H15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E9="","",_ganxijiao_day_all!E9)</f>
         <v/>
       </c>
-      <c r="I15" s="10" t="str">
+      <c r="I15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F9="","",_ganxijiao_day_all!F9)</f>
         <v/>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G9="","",_ganxijiao_day_all!G9)</f>
         <v/>
       </c>
-      <c r="K15" s="10" t="str">
+      <c r="K15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H9="","",_ganxijiao_day_all!H9)</f>
         <v/>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I9="","",_ganxijiao_day_all!I9)</f>
         <v/>
       </c>
-      <c r="M15" s="10" t="str">
+      <c r="M15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J9="","",_ganxijiao_day_all!J9)</f>
         <v/>
       </c>
-      <c r="N15" s="10" t="str">
+      <c r="N15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K9="","",_ganxijiao_day_all!K9)</f>
         <v/>
       </c>
-      <c r="O15" s="10" t="str">
+      <c r="O15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L9="","",_ganxijiao_day_all!L9)</f>
         <v/>
       </c>
-      <c r="P15" s="10" t="str">
+      <c r="P15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M9="","",_ganxijiao_day_all!M9)</f>
         <v/>
       </c>
-      <c r="Q15" s="10" t="str">
+      <c r="Q15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N9="","",_ganxijiao_day_all!N9)</f>
         <v/>
       </c>
-      <c r="R15" s="10" t="str">
+      <c r="R15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O9="","",_ganxijiao_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S15" s="10" t="str">
+      <c r="S15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P9="","",_ganxijiao_day_all!P9)</f>
         <v/>
       </c>
-      <c r="T15" s="10" t="str">
+      <c r="T15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q9="","",_ganxijiao_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="U15" s="10" t="str">
+      <c r="U15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R9="","",_ganxijiao_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V15" s="10" t="str">
+      <c r="V15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S9="","",_ganxijiao_day_all!S9)</f>
         <v/>
       </c>
-      <c r="W15" s="10" t="str">
+      <c r="W15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T9="","",_ganxijiao_day_all!T9)</f>
         <v/>
       </c>
-      <c r="X15" s="10" t="str">
+      <c r="X15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U9="","",_ganxijiao_day_all!U9)</f>
         <v/>
       </c>
-      <c r="Y15" s="10" t="str">
+      <c r="Y15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V9="","",_ganxijiao_day_all!V9)</f>
         <v/>
       </c>
-      <c r="Z15" s="10" t="str">
+      <c r="Z15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W9="","",_ganxijiao_day_all!W9)</f>
         <v/>
       </c>
-      <c r="AA15" s="10" t="str">
+      <c r="AA15" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X9="","",_ganxijiao_day_all!X9)</f>
         <v/>
       </c>
-      <c r="AB15" s="11" t="str">
+      <c r="AB15" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y9="","",_ganxijiao_day_all!Y9)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="15">
+      <c r="B16" s="22"/>
+      <c r="C16" s="10">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A10="","",_ganxijiao_day_all!A10)</f>
         <v/>
       </c>
-      <c r="E16" s="10" t="str">
+      <c r="E16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B10="","",_ganxijiao_day_all!B10)</f>
         <v/>
       </c>
-      <c r="F16" s="10" t="str">
+      <c r="F16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C10="","",_ganxijiao_day_all!C10)</f>
         <v/>
       </c>
-      <c r="G16" s="10" t="str">
+      <c r="G16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D10="","",_ganxijiao_day_all!D10)</f>
         <v/>
       </c>
-      <c r="H16" s="10" t="str">
+      <c r="H16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E10="","",_ganxijiao_day_all!E10)</f>
         <v/>
       </c>
-      <c r="I16" s="10" t="str">
+      <c r="I16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F10="","",_ganxijiao_day_all!F10)</f>
         <v/>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G10="","",_ganxijiao_day_all!G10)</f>
         <v/>
       </c>
-      <c r="K16" s="10" t="str">
+      <c r="K16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H10="","",_ganxijiao_day_all!H10)</f>
         <v/>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I10="","",_ganxijiao_day_all!I10)</f>
         <v/>
       </c>
-      <c r="M16" s="10" t="str">
+      <c r="M16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J10="","",_ganxijiao_day_all!J10)</f>
         <v/>
       </c>
-      <c r="N16" s="10" t="str">
+      <c r="N16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K10="","",_ganxijiao_day_all!K10)</f>
         <v/>
       </c>
-      <c r="O16" s="10" t="str">
+      <c r="O16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L10="","",_ganxijiao_day_all!L10)</f>
         <v/>
       </c>
-      <c r="P16" s="10" t="str">
+      <c r="P16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M10="","",_ganxijiao_day_all!M10)</f>
         <v/>
       </c>
-      <c r="Q16" s="10" t="str">
+      <c r="Q16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N10="","",_ganxijiao_day_all!N10)</f>
         <v/>
       </c>
-      <c r="R16" s="10" t="str">
+      <c r="R16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O10="","",_ganxijiao_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S16" s="10" t="str">
+      <c r="S16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P10="","",_ganxijiao_day_all!P10)</f>
         <v/>
       </c>
-      <c r="T16" s="10" t="str">
+      <c r="T16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q10="","",_ganxijiao_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="U16" s="10" t="str">
+      <c r="U16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R10="","",_ganxijiao_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V16" s="10" t="str">
+      <c r="V16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S10="","",_ganxijiao_day_all!S10)</f>
         <v/>
       </c>
-      <c r="W16" s="10" t="str">
+      <c r="W16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T10="","",_ganxijiao_day_all!T10)</f>
         <v/>
       </c>
-      <c r="X16" s="10" t="str">
+      <c r="X16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U10="","",_ganxijiao_day_all!U10)</f>
         <v/>
       </c>
-      <c r="Y16" s="10" t="str">
+      <c r="Y16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V10="","",_ganxijiao_day_all!V10)</f>
         <v/>
       </c>
-      <c r="Z16" s="10" t="str">
+      <c r="Z16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W10="","",_ganxijiao_day_all!W10)</f>
         <v/>
       </c>
-      <c r="AA16" s="10" t="str">
+      <c r="AA16" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X10="","",_ganxijiao_day_all!X10)</f>
         <v/>
       </c>
-      <c r="AB16" s="11" t="str">
+      <c r="AB16" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y10="","",_ganxijiao_day_all!Y10)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15">
+      <c r="B17" s="22"/>
+      <c r="C17" s="10">
         <v>14</v>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A11="","",_ganxijiao_day_all!A11)</f>
         <v/>
       </c>
-      <c r="E17" s="10" t="str">
+      <c r="E17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B11="","",_ganxijiao_day_all!B11)</f>
         <v/>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C11="","",_ganxijiao_day_all!C11)</f>
         <v/>
       </c>
-      <c r="G17" s="10" t="str">
+      <c r="G17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D11="","",_ganxijiao_day_all!D11)</f>
         <v/>
       </c>
-      <c r="H17" s="10" t="str">
+      <c r="H17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E11="","",_ganxijiao_day_all!E11)</f>
         <v/>
       </c>
-      <c r="I17" s="10" t="str">
+      <c r="I17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F11="","",_ganxijiao_day_all!F11)</f>
         <v/>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G11="","",_ganxijiao_day_all!G11)</f>
         <v/>
       </c>
-      <c r="K17" s="10" t="str">
+      <c r="K17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H11="","",_ganxijiao_day_all!H11)</f>
         <v/>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I11="","",_ganxijiao_day_all!I11)</f>
         <v/>
       </c>
-      <c r="M17" s="10" t="str">
+      <c r="M17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J11="","",_ganxijiao_day_all!J11)</f>
         <v/>
       </c>
-      <c r="N17" s="10" t="str">
+      <c r="N17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K11="","",_ganxijiao_day_all!K11)</f>
         <v/>
       </c>
-      <c r="O17" s="10" t="str">
+      <c r="O17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L11="","",_ganxijiao_day_all!L11)</f>
         <v/>
       </c>
-      <c r="P17" s="10" t="str">
+      <c r="P17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M11="","",_ganxijiao_day_all!M11)</f>
         <v/>
       </c>
-      <c r="Q17" s="10" t="str">
+      <c r="Q17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N11="","",_ganxijiao_day_all!N11)</f>
         <v/>
       </c>
-      <c r="R17" s="10" t="str">
+      <c r="R17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O11="","",_ganxijiao_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S17" s="10" t="str">
+      <c r="S17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P11="","",_ganxijiao_day_all!P11)</f>
         <v/>
       </c>
-      <c r="T17" s="10" t="str">
+      <c r="T17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q11="","",_ganxijiao_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="U17" s="10" t="str">
+      <c r="U17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R11="","",_ganxijiao_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V17" s="10" t="str">
+      <c r="V17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S11="","",_ganxijiao_day_all!S11)</f>
         <v/>
       </c>
-      <c r="W17" s="10" t="str">
+      <c r="W17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T11="","",_ganxijiao_day_all!T11)</f>
         <v/>
       </c>
-      <c r="X17" s="10" t="str">
+      <c r="X17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U11="","",_ganxijiao_day_all!U11)</f>
         <v/>
       </c>
-      <c r="Y17" s="10" t="str">
+      <c r="Y17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V11="","",_ganxijiao_day_all!V11)</f>
         <v/>
       </c>
-      <c r="Z17" s="10" t="str">
+      <c r="Z17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W11="","",_ganxijiao_day_all!W11)</f>
         <v/>
       </c>
-      <c r="AA17" s="10" t="str">
+      <c r="AA17" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X11="","",_ganxijiao_day_all!X11)</f>
         <v/>
       </c>
-      <c r="AB17" s="11" t="str">
+      <c r="AB17" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y11="","",_ganxijiao_day_all!Y11)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15">
+      <c r="B18" s="22"/>
+      <c r="C18" s="10">
         <v>16</v>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A12="","",_ganxijiao_day_all!A12)</f>
         <v/>
       </c>
-      <c r="E18" s="10" t="str">
+      <c r="E18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B12="","",_ganxijiao_day_all!B12)</f>
         <v/>
       </c>
-      <c r="F18" s="10" t="str">
+      <c r="F18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C12="","",_ganxijiao_day_all!C12)</f>
         <v/>
       </c>
-      <c r="G18" s="10" t="str">
+      <c r="G18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D12="","",_ganxijiao_day_all!D12)</f>
         <v/>
       </c>
-      <c r="H18" s="10" t="str">
+      <c r="H18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E12="","",_ganxijiao_day_all!E12)</f>
         <v/>
       </c>
-      <c r="I18" s="10" t="str">
+      <c r="I18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F12="","",_ganxijiao_day_all!F12)</f>
         <v/>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G12="","",_ganxijiao_day_all!G12)</f>
         <v/>
       </c>
-      <c r="K18" s="10" t="str">
+      <c r="K18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H12="","",_ganxijiao_day_all!H12)</f>
         <v/>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I12="","",_ganxijiao_day_all!I12)</f>
         <v/>
       </c>
-      <c r="M18" s="10" t="str">
+      <c r="M18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J12="","",_ganxijiao_day_all!J12)</f>
         <v/>
       </c>
-      <c r="N18" s="10" t="str">
+      <c r="N18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K12="","",_ganxijiao_day_all!K12)</f>
         <v/>
       </c>
-      <c r="O18" s="10" t="str">
+      <c r="O18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L12="","",_ganxijiao_day_all!L12)</f>
         <v/>
       </c>
-      <c r="P18" s="10" t="str">
+      <c r="P18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M12="","",_ganxijiao_day_all!M12)</f>
         <v/>
       </c>
-      <c r="Q18" s="10" t="str">
+      <c r="Q18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N12="","",_ganxijiao_day_all!N12)</f>
         <v/>
       </c>
-      <c r="R18" s="10" t="str">
+      <c r="R18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O12="","",_ganxijiao_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S18" s="10" t="str">
+      <c r="S18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P12="","",_ganxijiao_day_all!P12)</f>
         <v/>
       </c>
-      <c r="T18" s="10" t="str">
+      <c r="T18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q12="","",_ganxijiao_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="U18" s="10" t="str">
+      <c r="U18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R12="","",_ganxijiao_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V18" s="10" t="str">
+      <c r="V18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S12="","",_ganxijiao_day_all!S12)</f>
         <v/>
       </c>
-      <c r="W18" s="10" t="str">
+      <c r="W18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T12="","",_ganxijiao_day_all!T12)</f>
         <v/>
       </c>
-      <c r="X18" s="10" t="str">
+      <c r="X18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U12="","",_ganxijiao_day_all!U12)</f>
         <v/>
       </c>
-      <c r="Y18" s="10" t="str">
+      <c r="Y18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V12="","",_ganxijiao_day_all!V12)</f>
         <v/>
       </c>
-      <c r="Z18" s="10" t="str">
+      <c r="Z18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W12="","",_ganxijiao_day_all!W12)</f>
         <v/>
       </c>
-      <c r="AA18" s="10" t="str">
+      <c r="AA18" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X12="","",_ganxijiao_day_all!X12)</f>
         <v/>
       </c>
-      <c r="AB18" s="11" t="str">
+      <c r="AB18" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y12="","",_ganxijiao_day_all!Y12)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="15">
+      <c r="B19" s="22"/>
+      <c r="C19" s="10">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!A13="","",_ganxijiao_day_all!A13)</f>
         <v/>
       </c>
-      <c r="E19" s="10" t="str">
+      <c r="E19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!B13="","",_ganxijiao_day_all!B13)</f>
         <v/>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!C13="","",_ganxijiao_day_all!C13)</f>
         <v/>
       </c>
-      <c r="G19" s="10" t="str">
+      <c r="G19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!D13="","",_ganxijiao_day_all!D13)</f>
         <v/>
       </c>
-      <c r="H19" s="10" t="str">
+      <c r="H19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!E13="","",_ganxijiao_day_all!E13)</f>
         <v/>
       </c>
-      <c r="I19" s="10" t="str">
+      <c r="I19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!F13="","",_ganxijiao_day_all!F13)</f>
         <v/>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!G13="","",_ganxijiao_day_all!G13)</f>
         <v/>
       </c>
-      <c r="K19" s="10" t="str">
+      <c r="K19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!H13="","",_ganxijiao_day_all!H13)</f>
         <v/>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!I13="","",_ganxijiao_day_all!I13)</f>
         <v/>
       </c>
-      <c r="M19" s="10" t="str">
+      <c r="M19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!J13="","",_ganxijiao_day_all!J13)</f>
         <v/>
       </c>
-      <c r="N19" s="10" t="str">
+      <c r="N19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!K13="","",_ganxijiao_day_all!K13)</f>
         <v/>
       </c>
-      <c r="O19" s="10" t="str">
+      <c r="O19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!L13="","",_ganxijiao_day_all!L13)</f>
         <v/>
       </c>
-      <c r="P19" s="10" t="str">
+      <c r="P19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!M13="","",_ganxijiao_day_all!M13)</f>
         <v/>
       </c>
-      <c r="Q19" s="10" t="str">
+      <c r="Q19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!N13="","",_ganxijiao_day_all!N13)</f>
         <v/>
       </c>
-      <c r="R19" s="10" t="str">
+      <c r="R19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!O13="","",_ganxijiao_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S19" s="10" t="str">
+      <c r="S19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!P13="","",_ganxijiao_day_all!P13)</f>
         <v/>
       </c>
-      <c r="T19" s="10" t="str">
+      <c r="T19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!Q13="","",_ganxijiao_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="U19" s="10" t="str">
+      <c r="U19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!R13="","",_ganxijiao_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V19" s="10" t="str">
+      <c r="V19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!S13="","",_ganxijiao_day_all!S13)</f>
         <v/>
       </c>
-      <c r="W19" s="10" t="str">
+      <c r="W19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!T13="","",_ganxijiao_day_all!T13)</f>
         <v/>
       </c>
-      <c r="X19" s="10" t="str">
+      <c r="X19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!U13="","",_ganxijiao_day_all!U13)</f>
         <v/>
       </c>
-      <c r="Y19" s="10" t="str">
+      <c r="Y19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!V13="","",_ganxijiao_day_all!V13)</f>
         <v/>
       </c>
-      <c r="Z19" s="10" t="str">
+      <c r="Z19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!W13="","",_ganxijiao_day_all!W13)</f>
         <v/>
       </c>
-      <c r="AA19" s="10" t="str">
+      <c r="AA19" s="11" t="str">
         <f>IF(_ganxijiao_day_all!X13="","",_ganxijiao_day_all!X13)</f>
         <v/>
       </c>
-      <c r="AB19" s="11" t="str">
+      <c r="AB19" s="12" t="str">
         <f>IF(_ganxijiao_day_all!Y13="","",_ganxijiao_day_all!Y13)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:28" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="24" t="str">
-        <f t="shared" ref="D20:AB20" si="0">IFERROR(AVERAGE(D8:D19),"")</f>
-        <v/>
-      </c>
-      <c r="E20" s="24" t="str">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="15" t="str">
+        <f t="shared" ref="D20:U20" si="0">IFERROR(AVERAGE(D8:D19),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f>IFERROR(AVERAGE(E8:E19),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="G20" s="16" t="str">
+        <f>IFERROR(AVERAGE(G8:G19),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f>IFERROR(AVERAGE(H8:H19),"")</f>
+        <v/>
+      </c>
+      <c r="I20" s="16" t="str">
+        <f>IFERROR(AVERAGE(I8:I19),"")</f>
+        <v/>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f>IFERROR(AVERAGE(J8:J19),"")</f>
+        <v/>
+      </c>
+      <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="24" t="str">
+      <c r="L20" s="17" t="str">
+        <f t="shared" ref="L20:T20" si="1">IFERROR(AVERAGE(L8:L19),"")</f>
+        <v/>
+      </c>
+      <c r="M20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="N20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="O20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="P20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Q20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T20" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U20" s="15" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="O20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="R20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="S20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="T20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="U20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="V20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="W20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Y20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Z20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AA20" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AB20" s="25" t="str">
-        <f t="shared" si="0"/>
+      <c r="V20" s="15" t="str">
+        <f t="shared" ref="V20:AB20" si="2">IFERROR(AVERAGE(V8:V19),"")</f>
+        <v/>
+      </c>
+      <c r="W20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB20" s="18" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="B2:AB2"/>
@@ -2967,12 +3023,14 @@
     <mergeCell ref="D5:J5"/>
     <mergeCell ref="K5:T5"/>
     <mergeCell ref="U5:AB5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Y3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2986,86 +3044,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" s="14" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="19" customFormat="1" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -3083,7 +3141,7 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -3099,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1">
         <v>910</v>
@@ -3107,7 +3165,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
-  <printOptions gridLines="1" gridLinesSet="0"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
+++ b/excel/finished/wg6#焦化/6#干熄焦生产报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView windowWidth="21240" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="6干熄焦生产" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>编号：</t>
     </r>
     <r>
@@ -120,6 +127,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>%</t>
     </r>
     <r>
@@ -277,6 +291,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -300,6 +320,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -415,14 +441,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+  <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,20 +500,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,105 +507,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,14 +522,121 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,13 +681,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,121 +747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,25 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +783,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,63 +1050,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,6 +1071,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1114,16 +1088,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,137 +1154,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,13 +1328,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1321,7 +1343,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1333,18 +1355,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1357,10 +1376,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1905,10 +1924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:AB19"/>
+  <dimension ref="B2:AB20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6" defaultRowHeight="15"/>
@@ -1982,11 +2001,11 @@
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="28" t="s">
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="AB3" s="29"/>
+      <c r="AB3" s="28"/>
     </row>
     <row r="4" ht="24.9" customHeight="1" spans="2:28">
       <c r="B4" s="9"/>
@@ -2021,7 +2040,7 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="30"/>
+      <c r="AB4" s="29"/>
     </row>
     <row r="5" ht="36" customHeight="1" spans="2:28">
       <c r="B5" s="13"/>
@@ -2108,7 +2127,7 @@
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -2138,22 +2157,22 @@
       <c r="N6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="24" t="s">
+      <c r="O6" s="23" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="23" t="s">
         <v>36</v>
       </c>
       <c r="U6" s="26" t="s">
@@ -2177,22 +2196,22 @@
       <c r="AA6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="31" t="s">
+      <c r="AB6" s="30" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>20</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A2="","",_ganxijiao_day_all!A2)</f>
         <v/>
       </c>
-      <c r="E7" s="17" t="str">
+      <c r="E7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B2="","",_ganxijiao_day_all!B2)</f>
         <v/>
       </c>
@@ -2216,89 +2235,89 @@
         <f>IF(_ganxijiao_day_all!G2="","",_ganxijiao_day_all!G2)</f>
         <v/>
       </c>
-      <c r="K7" s="17" t="str">
+      <c r="K7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H2="","",_ganxijiao_day_all!H2)</f>
         <v/>
       </c>
-      <c r="L7" s="17" t="str">
+      <c r="L7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I2="","",_ganxijiao_day_all!I2)</f>
         <v/>
       </c>
-      <c r="M7" s="17" t="str">
+      <c r="M7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J2="","",_ganxijiao_day_all!J2)</f>
         <v/>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K2="","",_ganxijiao_day_all!K2)</f>
         <v/>
       </c>
-      <c r="O7" s="17" t="str">
+      <c r="O7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L2="","",_ganxijiao_day_all!L2)</f>
         <v/>
       </c>
-      <c r="P7" s="17" t="str">
+      <c r="P7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M2="","",_ganxijiao_day_all!M2)</f>
         <v/>
       </c>
-      <c r="Q7" s="17" t="str">
+      <c r="Q7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N2="","",_ganxijiao_day_all!N2)</f>
         <v/>
       </c>
-      <c r="R7" s="17" t="str">
+      <c r="R7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O2="","",_ganxijiao_day_all!O2)</f>
         <v/>
       </c>
-      <c r="S7" s="17" t="str">
+      <c r="S7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P2="","",_ganxijiao_day_all!P2)</f>
         <v/>
       </c>
-      <c r="T7" s="17" t="str">
+      <c r="T7" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q2="","",_ganxijiao_day_all!Q2)</f>
         <v/>
       </c>
-      <c r="U7" s="17" t="str">
+      <c r="U7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R2="","",_ganxijiao_day_all!R2)</f>
         <v/>
       </c>
-      <c r="V7" s="17" t="str">
+      <c r="V7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S2="","",_ganxijiao_day_all!S2)</f>
         <v/>
       </c>
-      <c r="W7" s="17" t="str">
+      <c r="W7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T2="","",_ganxijiao_day_all!T2)</f>
         <v/>
       </c>
-      <c r="X7" s="17" t="str">
+      <c r="X7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U2="","",_ganxijiao_day_all!U2)</f>
         <v/>
       </c>
-      <c r="Y7" s="17" t="str">
+      <c r="Y7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V2="","",_ganxijiao_day_all!V2)</f>
         <v/>
       </c>
-      <c r="Z7" s="17" t="str">
+      <c r="Z7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W2="","",_ganxijiao_day_all!W2)</f>
         <v/>
       </c>
-      <c r="AA7" s="17" t="str">
+      <c r="AA7" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X2="","",_ganxijiao_day_all!X2)</f>
         <v/>
       </c>
-      <c r="AB7" s="32" t="str">
+      <c r="AB7" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y2="","",_ganxijiao_day_all!Y2)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15">
         <v>22</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A3="","",_ganxijiao_day_all!A3)</f>
         <v/>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B3="","",_ganxijiao_day_all!B3)</f>
         <v/>
       </c>
@@ -2322,89 +2341,89 @@
         <f>IF(_ganxijiao_day_all!G3="","",_ganxijiao_day_all!G3)</f>
         <v/>
       </c>
-      <c r="K8" s="17" t="str">
+      <c r="K8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H3="","",_ganxijiao_day_all!H3)</f>
         <v/>
       </c>
-      <c r="L8" s="17" t="str">
+      <c r="L8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I3="","",_ganxijiao_day_all!I3)</f>
         <v/>
       </c>
-      <c r="M8" s="17" t="str">
+      <c r="M8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J3="","",_ganxijiao_day_all!J3)</f>
         <v/>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K3="","",_ganxijiao_day_all!K3)</f>
         <v/>
       </c>
-      <c r="O8" s="17" t="str">
+      <c r="O8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L3="","",_ganxijiao_day_all!L3)</f>
         <v/>
       </c>
-      <c r="P8" s="17" t="str">
+      <c r="P8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M3="","",_ganxijiao_day_all!M3)</f>
         <v/>
       </c>
-      <c r="Q8" s="17" t="str">
+      <c r="Q8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N3="","",_ganxijiao_day_all!N3)</f>
         <v/>
       </c>
-      <c r="R8" s="17" t="str">
+      <c r="R8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O3="","",_ganxijiao_day_all!O3)</f>
         <v/>
       </c>
-      <c r="S8" s="17" t="str">
+      <c r="S8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P3="","",_ganxijiao_day_all!P3)</f>
         <v/>
       </c>
-      <c r="T8" s="17" t="str">
+      <c r="T8" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q3="","",_ganxijiao_day_all!Q3)</f>
         <v/>
       </c>
-      <c r="U8" s="17" t="str">
+      <c r="U8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R3="","",_ganxijiao_day_all!R3)</f>
         <v/>
       </c>
-      <c r="V8" s="17" t="str">
+      <c r="V8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S3="","",_ganxijiao_day_all!S3)</f>
         <v/>
       </c>
-      <c r="W8" s="17" t="str">
+      <c r="W8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T3="","",_ganxijiao_day_all!T3)</f>
         <v/>
       </c>
-      <c r="X8" s="17" t="str">
+      <c r="X8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U3="","",_ganxijiao_day_all!U3)</f>
         <v/>
       </c>
-      <c r="Y8" s="17" t="str">
+      <c r="Y8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V3="","",_ganxijiao_day_all!V3)</f>
         <v/>
       </c>
-      <c r="Z8" s="17" t="str">
+      <c r="Z8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W3="","",_ganxijiao_day_all!W3)</f>
         <v/>
       </c>
-      <c r="AA8" s="17" t="str">
+      <c r="AA8" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X3="","",_ganxijiao_day_all!X3)</f>
         <v/>
       </c>
-      <c r="AB8" s="32" t="str">
+      <c r="AB8" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y3="","",_ganxijiao_day_all!Y3)</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A4="","",_ganxijiao_day_all!A4)</f>
         <v/>
       </c>
-      <c r="E9" s="17" t="str">
+      <c r="E9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B4="","",_ganxijiao_day_all!B4)</f>
         <v/>
       </c>
@@ -2428,89 +2447,89 @@
         <f>IF(_ganxijiao_day_all!G4="","",_ganxijiao_day_all!G4)</f>
         <v/>
       </c>
-      <c r="K9" s="17" t="str">
+      <c r="K9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H4="","",_ganxijiao_day_all!H4)</f>
         <v/>
       </c>
-      <c r="L9" s="17" t="str">
+      <c r="L9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I4="","",_ganxijiao_day_all!I4)</f>
         <v/>
       </c>
-      <c r="M9" s="17" t="str">
+      <c r="M9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J4="","",_ganxijiao_day_all!J4)</f>
         <v/>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K4="","",_ganxijiao_day_all!K4)</f>
         <v/>
       </c>
-      <c r="O9" s="17" t="str">
+      <c r="O9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L4="","",_ganxijiao_day_all!L4)</f>
         <v/>
       </c>
-      <c r="P9" s="17" t="str">
+      <c r="P9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M4="","",_ganxijiao_day_all!M4)</f>
         <v/>
       </c>
-      <c r="Q9" s="17" t="str">
+      <c r="Q9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N4="","",_ganxijiao_day_all!N4)</f>
         <v/>
       </c>
-      <c r="R9" s="17" t="str">
+      <c r="R9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O4="","",_ganxijiao_day_all!O4)</f>
         <v/>
       </c>
-      <c r="S9" s="17" t="str">
+      <c r="S9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P4="","",_ganxijiao_day_all!P4)</f>
         <v/>
       </c>
-      <c r="T9" s="17" t="str">
+      <c r="T9" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q4="","",_ganxijiao_day_all!Q4)</f>
         <v/>
       </c>
-      <c r="U9" s="17" t="str">
+      <c r="U9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R4="","",_ganxijiao_day_all!R4)</f>
         <v/>
       </c>
-      <c r="V9" s="17" t="str">
+      <c r="V9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S4="","",_ganxijiao_day_all!S4)</f>
         <v/>
       </c>
-      <c r="W9" s="17" t="str">
+      <c r="W9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T4="","",_ganxijiao_day_all!T4)</f>
         <v/>
       </c>
-      <c r="X9" s="17" t="str">
+      <c r="X9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U4="","",_ganxijiao_day_all!U4)</f>
         <v/>
       </c>
-      <c r="Y9" s="17" t="str">
+      <c r="Y9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V4="","",_ganxijiao_day_all!V4)</f>
         <v/>
       </c>
-      <c r="Z9" s="17" t="str">
+      <c r="Z9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W4="","",_ganxijiao_day_all!W4)</f>
         <v/>
       </c>
-      <c r="AA9" s="17" t="str">
+      <c r="AA9" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X4="","",_ganxijiao_day_all!X4)</f>
         <v/>
       </c>
-      <c r="AB9" s="32" t="str">
+      <c r="AB9" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y4="","",_ganxijiao_day_all!Y4)</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15">
         <v>2</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A5="","",_ganxijiao_day_all!A5)</f>
         <v/>
       </c>
-      <c r="E10" s="17" t="str">
+      <c r="E10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B5="","",_ganxijiao_day_all!B5)</f>
         <v/>
       </c>
@@ -2534,89 +2553,89 @@
         <f>IF(_ganxijiao_day_all!G5="","",_ganxijiao_day_all!G5)</f>
         <v/>
       </c>
-      <c r="K10" s="17" t="str">
+      <c r="K10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H5="","",_ganxijiao_day_all!H5)</f>
         <v/>
       </c>
-      <c r="L10" s="17" t="str">
+      <c r="L10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I5="","",_ganxijiao_day_all!I5)</f>
         <v/>
       </c>
-      <c r="M10" s="17" t="str">
+      <c r="M10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J5="","",_ganxijiao_day_all!J5)</f>
         <v/>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K5="","",_ganxijiao_day_all!K5)</f>
         <v/>
       </c>
-      <c r="O10" s="17" t="str">
+      <c r="O10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L5="","",_ganxijiao_day_all!L5)</f>
         <v/>
       </c>
-      <c r="P10" s="17" t="str">
+      <c r="P10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M5="","",_ganxijiao_day_all!M5)</f>
         <v/>
       </c>
-      <c r="Q10" s="17" t="str">
+      <c r="Q10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N5="","",_ganxijiao_day_all!N5)</f>
         <v/>
       </c>
-      <c r="R10" s="17" t="str">
+      <c r="R10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O5="","",_ganxijiao_day_all!O5)</f>
         <v/>
       </c>
-      <c r="S10" s="17" t="str">
+      <c r="S10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P5="","",_ganxijiao_day_all!P5)</f>
         <v/>
       </c>
-      <c r="T10" s="17" t="str">
+      <c r="T10" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q5="","",_ganxijiao_day_all!Q5)</f>
         <v/>
       </c>
-      <c r="U10" s="17" t="str">
+      <c r="U10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R5="","",_ganxijiao_day_all!R5)</f>
         <v/>
       </c>
-      <c r="V10" s="17" t="str">
+      <c r="V10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S5="","",_ganxijiao_day_all!S5)</f>
         <v/>
       </c>
-      <c r="W10" s="17" t="str">
+      <c r="W10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T5="","",_ganxijiao_day_all!T5)</f>
         <v/>
       </c>
-      <c r="X10" s="17" t="str">
+      <c r="X10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U5="","",_ganxijiao_day_all!U5)</f>
         <v/>
       </c>
-      <c r="Y10" s="17" t="str">
+      <c r="Y10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V5="","",_ganxijiao_day_all!V5)</f>
         <v/>
       </c>
-      <c r="Z10" s="17" t="str">
+      <c r="Z10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W5="","",_ganxijiao_day_all!W5)</f>
         <v/>
       </c>
-      <c r="AA10" s="17" t="str">
+      <c r="AA10" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X5="","",_ganxijiao_day_all!X5)</f>
         <v/>
       </c>
-      <c r="AB10" s="32" t="str">
+      <c r="AB10" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y5="","",_ganxijiao_day_all!Y5)</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15">
         <v>4</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A6="","",_ganxijiao_day_all!A6)</f>
         <v/>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B6="","",_ganxijiao_day_all!B6)</f>
         <v/>
       </c>
@@ -2640,89 +2659,89 @@
         <f>IF(_ganxijiao_day_all!G6="","",_ganxijiao_day_all!G6)</f>
         <v/>
       </c>
-      <c r="K11" s="17" t="str">
+      <c r="K11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H6="","",_ganxijiao_day_all!H6)</f>
         <v/>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I6="","",_ganxijiao_day_all!I6)</f>
         <v/>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J6="","",_ganxijiao_day_all!J6)</f>
         <v/>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K6="","",_ganxijiao_day_all!K6)</f>
         <v/>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L6="","",_ganxijiao_day_all!L6)</f>
         <v/>
       </c>
-      <c r="P11" s="17" t="str">
+      <c r="P11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M6="","",_ganxijiao_day_all!M6)</f>
         <v/>
       </c>
-      <c r="Q11" s="17" t="str">
+      <c r="Q11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N6="","",_ganxijiao_day_all!N6)</f>
         <v/>
       </c>
-      <c r="R11" s="17" t="str">
+      <c r="R11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O6="","",_ganxijiao_day_all!O6)</f>
         <v/>
       </c>
-      <c r="S11" s="17" t="str">
+      <c r="S11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P6="","",_ganxijiao_day_all!P6)</f>
         <v/>
       </c>
-      <c r="T11" s="17" t="str">
+      <c r="T11" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q6="","",_ganxijiao_day_all!Q6)</f>
         <v/>
       </c>
-      <c r="U11" s="17" t="str">
+      <c r="U11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R6="","",_ganxijiao_day_all!R6)</f>
         <v/>
       </c>
-      <c r="V11" s="17" t="str">
+      <c r="V11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S6="","",_ganxijiao_day_all!S6)</f>
         <v/>
       </c>
-      <c r="W11" s="17" t="str">
+      <c r="W11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T6="","",_ganxijiao_day_all!T6)</f>
         <v/>
       </c>
-      <c r="X11" s="17" t="str">
+      <c r="X11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U6="","",_ganxijiao_day_all!U6)</f>
         <v/>
       </c>
-      <c r="Y11" s="17" t="str">
+      <c r="Y11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V6="","",_ganxijiao_day_all!V6)</f>
         <v/>
       </c>
-      <c r="Z11" s="17" t="str">
+      <c r="Z11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W6="","",_ganxijiao_day_all!W6)</f>
         <v/>
       </c>
-      <c r="AA11" s="17" t="str">
+      <c r="AA11" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X6="","",_ganxijiao_day_all!X6)</f>
         <v/>
       </c>
-      <c r="AB11" s="32" t="str">
+      <c r="AB11" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y6="","",_ganxijiao_day_all!Y6)</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15">
         <v>6</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A7="","",_ganxijiao_day_all!A7)</f>
         <v/>
       </c>
-      <c r="E12" s="17" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B7="","",_ganxijiao_day_all!B7)</f>
         <v/>
       </c>
@@ -2746,91 +2765,91 @@
         <f>IF(_ganxijiao_day_all!G7="","",_ganxijiao_day_all!G7)</f>
         <v/>
       </c>
-      <c r="K12" s="17" t="str">
+      <c r="K12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H7="","",_ganxijiao_day_all!H7)</f>
         <v/>
       </c>
-      <c r="L12" s="17" t="str">
+      <c r="L12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I7="","",_ganxijiao_day_all!I7)</f>
         <v/>
       </c>
-      <c r="M12" s="17" t="str">
+      <c r="M12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J7="","",_ganxijiao_day_all!J7)</f>
         <v/>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K7="","",_ganxijiao_day_all!K7)</f>
         <v/>
       </c>
-      <c r="O12" s="17" t="str">
+      <c r="O12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L7="","",_ganxijiao_day_all!L7)</f>
         <v/>
       </c>
-      <c r="P12" s="17" t="str">
+      <c r="P12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M7="","",_ganxijiao_day_all!M7)</f>
         <v/>
       </c>
-      <c r="Q12" s="17" t="str">
+      <c r="Q12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N7="","",_ganxijiao_day_all!N7)</f>
         <v/>
       </c>
-      <c r="R12" s="17" t="str">
+      <c r="R12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O7="","",_ganxijiao_day_all!O7)</f>
         <v/>
       </c>
-      <c r="S12" s="17" t="str">
+      <c r="S12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P7="","",_ganxijiao_day_all!P7)</f>
         <v/>
       </c>
-      <c r="T12" s="17" t="str">
+      <c r="T12" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q7="","",_ganxijiao_day_all!Q7)</f>
         <v/>
       </c>
-      <c r="U12" s="17" t="str">
+      <c r="U12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R7="","",_ganxijiao_day_all!R7)</f>
         <v/>
       </c>
-      <c r="V12" s="17" t="str">
+      <c r="V12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S7="","",_ganxijiao_day_all!S7)</f>
         <v/>
       </c>
-      <c r="W12" s="17" t="str">
+      <c r="W12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T7="","",_ganxijiao_day_all!T7)</f>
         <v/>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U7="","",_ganxijiao_day_all!U7)</f>
         <v/>
       </c>
-      <c r="Y12" s="17" t="str">
+      <c r="Y12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V7="","",_ganxijiao_day_all!V7)</f>
         <v/>
       </c>
-      <c r="Z12" s="17" t="str">
+      <c r="Z12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W7="","",_ganxijiao_day_all!W7)</f>
         <v/>
       </c>
-      <c r="AA12" s="17" t="str">
+      <c r="AA12" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X7="","",_ganxijiao_day_all!X7)</f>
         <v/>
       </c>
-      <c r="AB12" s="32" t="str">
+      <c r="AB12" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y7="","",_ganxijiao_day_all!Y7)</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>8</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A8="","",_ganxijiao_day_all!A8)</f>
         <v/>
       </c>
-      <c r="E13" s="17" t="str">
+      <c r="E13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B8="","",_ganxijiao_day_all!B8)</f>
         <v/>
       </c>
@@ -2854,89 +2873,89 @@
         <f>IF(_ganxijiao_day_all!G8="","",_ganxijiao_day_all!G8)</f>
         <v/>
       </c>
-      <c r="K13" s="17" t="str">
+      <c r="K13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H8="","",_ganxijiao_day_all!H8)</f>
         <v/>
       </c>
-      <c r="L13" s="17" t="str">
+      <c r="L13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I8="","",_ganxijiao_day_all!I8)</f>
         <v/>
       </c>
-      <c r="M13" s="17" t="str">
+      <c r="M13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J8="","",_ganxijiao_day_all!J8)</f>
         <v/>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K8="","",_ganxijiao_day_all!K8)</f>
         <v/>
       </c>
-      <c r="O13" s="17" t="str">
+      <c r="O13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L8="","",_ganxijiao_day_all!L8)</f>
         <v/>
       </c>
-      <c r="P13" s="17" t="str">
+      <c r="P13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M8="","",_ganxijiao_day_all!M8)</f>
         <v/>
       </c>
-      <c r="Q13" s="17" t="str">
+      <c r="Q13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N8="","",_ganxijiao_day_all!N8)</f>
         <v/>
       </c>
-      <c r="R13" s="17" t="str">
+      <c r="R13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O8="","",_ganxijiao_day_all!O8)</f>
         <v/>
       </c>
-      <c r="S13" s="17" t="str">
+      <c r="S13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P8="","",_ganxijiao_day_all!P8)</f>
         <v/>
       </c>
-      <c r="T13" s="17" t="str">
+      <c r="T13" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q8="","",_ganxijiao_day_all!Q8)</f>
         <v/>
       </c>
-      <c r="U13" s="17" t="str">
+      <c r="U13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R8="","",_ganxijiao_day_all!R8)</f>
         <v/>
       </c>
-      <c r="V13" s="17" t="str">
+      <c r="V13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S8="","",_ganxijiao_day_all!S8)</f>
         <v/>
       </c>
-      <c r="W13" s="17" t="str">
+      <c r="W13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T8="","",_ganxijiao_day_all!T8)</f>
         <v/>
       </c>
-      <c r="X13" s="17" t="str">
+      <c r="X13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U8="","",_ganxijiao_day_all!U8)</f>
         <v/>
       </c>
-      <c r="Y13" s="17" t="str">
+      <c r="Y13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V8="","",_ganxijiao_day_all!V8)</f>
         <v/>
       </c>
-      <c r="Z13" s="17" t="str">
+      <c r="Z13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W8="","",_ganxijiao_day_all!W8)</f>
         <v/>
       </c>
-      <c r="AA13" s="17" t="str">
+      <c r="AA13" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X8="","",_ganxijiao_day_all!X8)</f>
         <v/>
       </c>
-      <c r="AB13" s="32" t="str">
+      <c r="AB13" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y8="","",_ganxijiao_day_all!Y8)</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15">
         <v>10</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A9="","",_ganxijiao_day_all!A9)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B9="","",_ganxijiao_day_all!B9)</f>
         <v/>
       </c>
@@ -2960,89 +2979,89 @@
         <f>IF(_ganxijiao_day_all!G9="","",_ganxijiao_day_all!G9)</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H9="","",_ganxijiao_day_all!H9)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I9="","",_ganxijiao_day_all!I9)</f>
         <v/>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J9="","",_ganxijiao_day_all!J9)</f>
         <v/>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K9="","",_ganxijiao_day_all!K9)</f>
         <v/>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L9="","",_ganxijiao_day_all!L9)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M9="","",_ganxijiao_day_all!M9)</f>
         <v/>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N9="","",_ganxijiao_day_all!N9)</f>
         <v/>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O9="","",_ganxijiao_day_all!O9)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P9="","",_ganxijiao_day_all!P9)</f>
         <v/>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T14" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q9="","",_ganxijiao_day_all!Q9)</f>
         <v/>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R9="","",_ganxijiao_day_all!R9)</f>
         <v/>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S9="","",_ganxijiao_day_all!S9)</f>
         <v/>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T9="","",_ganxijiao_day_all!T9)</f>
         <v/>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U9="","",_ganxijiao_day_all!U9)</f>
         <v/>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V9="","",_ganxijiao_day_all!V9)</f>
         <v/>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W9="","",_ganxijiao_day_all!W9)</f>
         <v/>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA14" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X9="","",_ganxijiao_day_all!X9)</f>
         <v/>
       </c>
-      <c r="AB14" s="32" t="str">
+      <c r="AB14" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y9="","",_ganxijiao_day_all!Y9)</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15">
         <v>12</v>
       </c>
-      <c r="D15" s="17" t="str">
+      <c r="D15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A10="","",_ganxijiao_day_all!A10)</f>
         <v/>
       </c>
-      <c r="E15" s="17" t="str">
+      <c r="E15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B10="","",_ganxijiao_day_all!B10)</f>
         <v/>
       </c>
@@ -3066,89 +3085,89 @@
         <f>IF(_ganxijiao_day_all!G10="","",_ganxijiao_day_all!G10)</f>
         <v/>
       </c>
-      <c r="K15" s="17" t="str">
+      <c r="K15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H10="","",_ganxijiao_day_all!H10)</f>
         <v/>
       </c>
-      <c r="L15" s="17" t="str">
+      <c r="L15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I10="","",_ganxijiao_day_all!I10)</f>
         <v/>
       </c>
-      <c r="M15" s="17" t="str">
+      <c r="M15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J10="","",_ganxijiao_day_all!J10)</f>
         <v/>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K10="","",_ganxijiao_day_all!K10)</f>
         <v/>
       </c>
-      <c r="O15" s="17" t="str">
+      <c r="O15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L10="","",_ganxijiao_day_all!L10)</f>
         <v/>
       </c>
-      <c r="P15" s="17" t="str">
+      <c r="P15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M10="","",_ganxijiao_day_all!M10)</f>
         <v/>
       </c>
-      <c r="Q15" s="17" t="str">
+      <c r="Q15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N10="","",_ganxijiao_day_all!N10)</f>
         <v/>
       </c>
-      <c r="R15" s="17" t="str">
+      <c r="R15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O10="","",_ganxijiao_day_all!O10)</f>
         <v/>
       </c>
-      <c r="S15" s="17" t="str">
+      <c r="S15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P10="","",_ganxijiao_day_all!P10)</f>
         <v/>
       </c>
-      <c r="T15" s="17" t="str">
+      <c r="T15" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q10="","",_ganxijiao_day_all!Q10)</f>
         <v/>
       </c>
-      <c r="U15" s="17" t="str">
+      <c r="U15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R10="","",_ganxijiao_day_all!R10)</f>
         <v/>
       </c>
-      <c r="V15" s="17" t="str">
+      <c r="V15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S10="","",_ganxijiao_day_all!S10)</f>
         <v/>
       </c>
-      <c r="W15" s="17" t="str">
+      <c r="W15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T10="","",_ganxijiao_day_all!T10)</f>
         <v/>
       </c>
-      <c r="X15" s="17" t="str">
+      <c r="X15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U10="","",_ganxijiao_day_all!U10)</f>
         <v/>
       </c>
-      <c r="Y15" s="17" t="str">
+      <c r="Y15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V10="","",_ganxijiao_day_all!V10)</f>
         <v/>
       </c>
-      <c r="Z15" s="17" t="str">
+      <c r="Z15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W10="","",_ganxijiao_day_all!W10)</f>
         <v/>
       </c>
-      <c r="AA15" s="17" t="str">
+      <c r="AA15" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X10="","",_ganxijiao_day_all!X10)</f>
         <v/>
       </c>
-      <c r="AB15" s="32" t="str">
+      <c r="AB15" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y10="","",_ganxijiao_day_all!Y10)</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="str">
+      <c r="D16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A11="","",_ganxijiao_day_all!A11)</f>
         <v/>
       </c>
-      <c r="E16" s="17" t="str">
+      <c r="E16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B11="","",_ganxijiao_day_all!B11)</f>
         <v/>
       </c>
@@ -3172,89 +3191,89 @@
         <f>IF(_ganxijiao_day_all!G11="","",_ganxijiao_day_all!G11)</f>
         <v/>
       </c>
-      <c r="K16" s="17" t="str">
+      <c r="K16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H11="","",_ganxijiao_day_all!H11)</f>
         <v/>
       </c>
-      <c r="L16" s="17" t="str">
+      <c r="L16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I11="","",_ganxijiao_day_all!I11)</f>
         <v/>
       </c>
-      <c r="M16" s="17" t="str">
+      <c r="M16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J11="","",_ganxijiao_day_all!J11)</f>
         <v/>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K11="","",_ganxijiao_day_all!K11)</f>
         <v/>
       </c>
-      <c r="O16" s="17" t="str">
+      <c r="O16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L11="","",_ganxijiao_day_all!L11)</f>
         <v/>
       </c>
-      <c r="P16" s="17" t="str">
+      <c r="P16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M11="","",_ganxijiao_day_all!M11)</f>
         <v/>
       </c>
-      <c r="Q16" s="17" t="str">
+      <c r="Q16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N11="","",_ganxijiao_day_all!N11)</f>
         <v/>
       </c>
-      <c r="R16" s="17" t="str">
+      <c r="R16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O11="","",_ganxijiao_day_all!O11)</f>
         <v/>
       </c>
-      <c r="S16" s="17" t="str">
+      <c r="S16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P11="","",_ganxijiao_day_all!P11)</f>
         <v/>
       </c>
-      <c r="T16" s="17" t="str">
+      <c r="T16" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q11="","",_ganxijiao_day_all!Q11)</f>
         <v/>
       </c>
-      <c r="U16" s="17" t="str">
+      <c r="U16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R11="","",_ganxijiao_day_all!R11)</f>
         <v/>
       </c>
-      <c r="V16" s="17" t="str">
+      <c r="V16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S11="","",_ganxijiao_day_all!S11)</f>
         <v/>
       </c>
-      <c r="W16" s="17" t="str">
+      <c r="W16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T11="","",_ganxijiao_day_all!T11)</f>
         <v/>
       </c>
-      <c r="X16" s="17" t="str">
+      <c r="X16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U11="","",_ganxijiao_day_all!U11)</f>
         <v/>
       </c>
-      <c r="Y16" s="17" t="str">
+      <c r="Y16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V11="","",_ganxijiao_day_all!V11)</f>
         <v/>
       </c>
-      <c r="Z16" s="17" t="str">
+      <c r="Z16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W11="","",_ganxijiao_day_all!W11)</f>
         <v/>
       </c>
-      <c r="AA16" s="17" t="str">
+      <c r="AA16" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X11="","",_ganxijiao_day_all!X11)</f>
         <v/>
       </c>
-      <c r="AB16" s="32" t="str">
+      <c r="AB16" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y11="","",_ganxijiao_day_all!Y11)</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15">
         <v>16</v>
       </c>
-      <c r="D17" s="17" t="str">
+      <c r="D17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A12="","",_ganxijiao_day_all!A12)</f>
         <v/>
       </c>
-      <c r="E17" s="17" t="str">
+      <c r="E17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B12="","",_ganxijiao_day_all!B12)</f>
         <v/>
       </c>
@@ -3278,89 +3297,89 @@
         <f>IF(_ganxijiao_day_all!G12="","",_ganxijiao_day_all!G12)</f>
         <v/>
       </c>
-      <c r="K17" s="17" t="str">
+      <c r="K17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H12="","",_ganxijiao_day_all!H12)</f>
         <v/>
       </c>
-      <c r="L17" s="17" t="str">
+      <c r="L17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I12="","",_ganxijiao_day_all!I12)</f>
         <v/>
       </c>
-      <c r="M17" s="17" t="str">
+      <c r="M17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J12="","",_ganxijiao_day_all!J12)</f>
         <v/>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K12="","",_ganxijiao_day_all!K12)</f>
         <v/>
       </c>
-      <c r="O17" s="17" t="str">
+      <c r="O17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L12="","",_ganxijiao_day_all!L12)</f>
         <v/>
       </c>
-      <c r="P17" s="17" t="str">
+      <c r="P17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M12="","",_ganxijiao_day_all!M12)</f>
         <v/>
       </c>
-      <c r="Q17" s="17" t="str">
+      <c r="Q17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N12="","",_ganxijiao_day_all!N12)</f>
         <v/>
       </c>
-      <c r="R17" s="17" t="str">
+      <c r="R17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O12="","",_ganxijiao_day_all!O12)</f>
         <v/>
       </c>
-      <c r="S17" s="17" t="str">
+      <c r="S17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P12="","",_ganxijiao_day_all!P12)</f>
         <v/>
       </c>
-      <c r="T17" s="17" t="str">
+      <c r="T17" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q12="","",_ganxijiao_day_all!Q12)</f>
         <v/>
       </c>
-      <c r="U17" s="17" t="str">
+      <c r="U17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R12="","",_ganxijiao_day_all!R12)</f>
         <v/>
       </c>
-      <c r="V17" s="17" t="str">
+      <c r="V17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S12="","",_ganxijiao_day_all!S12)</f>
         <v/>
       </c>
-      <c r="W17" s="17" t="str">
+      <c r="W17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T12="","",_ganxijiao_day_all!T12)</f>
         <v/>
       </c>
-      <c r="X17" s="17" t="str">
+      <c r="X17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U12="","",_ganxijiao_day_all!U12)</f>
         <v/>
       </c>
-      <c r="Y17" s="17" t="str">
+      <c r="Y17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V12="","",_ganxijiao_day_all!V12)</f>
         <v/>
       </c>
-      <c r="Z17" s="17" t="str">
+      <c r="Z17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W12="","",_ganxijiao_day_all!W12)</f>
         <v/>
       </c>
-      <c r="AA17" s="17" t="str">
+      <c r="AA17" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X12="","",_ganxijiao_day_all!X12)</f>
         <v/>
       </c>
-      <c r="AB17" s="32" t="str">
+      <c r="AB17" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y12="","",_ganxijiao_day_all!Y12)</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="18.6" customHeight="1" spans="2:28">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
         <v>18</v>
       </c>
-      <c r="D18" s="17" t="str">
+      <c r="D18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!A13="","",_ganxijiao_day_all!A13)</f>
         <v/>
       </c>
-      <c r="E18" s="17" t="str">
+      <c r="E18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!B13="","",_ganxijiao_day_all!B13)</f>
         <v/>
       </c>
@@ -3384,75 +3403,75 @@
         <f>IF(_ganxijiao_day_all!G13="","",_ganxijiao_day_all!G13)</f>
         <v/>
       </c>
-      <c r="K18" s="17" t="str">
+      <c r="K18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!H13="","",_ganxijiao_day_all!H13)</f>
         <v/>
       </c>
-      <c r="L18" s="17" t="str">
+      <c r="L18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!I13="","",_ganxijiao_day_all!I13)</f>
         <v/>
       </c>
-      <c r="M18" s="17" t="str">
+      <c r="M18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!J13="","",_ganxijiao_day_all!J13)</f>
         <v/>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!K13="","",_ganxijiao_day_all!K13)</f>
         <v/>
       </c>
-      <c r="O18" s="17" t="str">
+      <c r="O18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!L13="","",_ganxijiao_day_all!L13)</f>
         <v/>
       </c>
-      <c r="P18" s="17" t="str">
+      <c r="P18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!M13="","",_ganxijiao_day_all!M13)</f>
         <v/>
       </c>
-      <c r="Q18" s="17" t="str">
+      <c r="Q18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!N13="","",_ganxijiao_day_all!N13)</f>
         <v/>
       </c>
-      <c r="R18" s="17" t="str">
+      <c r="R18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!O13="","",_ganxijiao_day_all!O13)</f>
         <v/>
       </c>
-      <c r="S18" s="17" t="str">
+      <c r="S18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!P13="","",_ganxijiao_day_all!P13)</f>
         <v/>
       </c>
-      <c r="T18" s="17" t="str">
+      <c r="T18" s="24" t="str">
         <f>IF(_ganxijiao_day_all!Q13="","",_ganxijiao_day_all!Q13)</f>
         <v/>
       </c>
-      <c r="U18" s="17" t="str">
+      <c r="U18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!R13="","",_ganxijiao_day_all!R13)</f>
         <v/>
       </c>
-      <c r="V18" s="17" t="str">
+      <c r="V18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!S13="","",_ganxijiao_day_all!S13)</f>
         <v/>
       </c>
-      <c r="W18" s="17" t="str">
+      <c r="W18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!T13="","",_ganxijiao_day_all!T13)</f>
         <v/>
       </c>
-      <c r="X18" s="17" t="str">
+      <c r="X18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!U13="","",_ganxijiao_day_all!U13)</f>
         <v/>
       </c>
-      <c r="Y18" s="17" t="str">
+      <c r="Y18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!V13="","",_ganxijiao_day_all!V13)</f>
         <v/>
       </c>
-      <c r="Z18" s="17" t="str">
+      <c r="Z18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!W13="","",_ganxijiao_day_all!W13)</f>
         <v/>
       </c>
-      <c r="AA18" s="17" t="str">
+      <c r="AA18" s="16" t="str">
         <f>IF(_ganxijiao_day_all!X13="","",_ganxijiao_day_all!X13)</f>
         <v/>
       </c>
-      <c r="AB18" s="32" t="str">
+      <c r="AB18" s="31" t="str">
         <f>IF(_ganxijiao_day_all!Y13="","",_ganxijiao_day_all!Y13)</f>
         <v/>
       </c>
@@ -3558,11 +3577,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AB19" s="33" t="str">
+      <c r="AB19" s="32" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
+    <row r="20" ht="15.75"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B2:AB2"/>
